--- a/teaching/traditional_assets/database/data/turkey/turkey_drugs_pharmaceutical.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_drugs_pharmaceutical.xlsx
@@ -650,10 +650,10 @@
         <v>0.4413875598086124</v>
       </c>
       <c r="X2">
-        <v>0.1174606832776711</v>
+        <v>0.1160597904953327</v>
       </c>
       <c r="Y2">
-        <v>0.3239268765309413</v>
+        <v>0.3253277693132798</v>
       </c>
       <c r="Z2">
         <v>0.8196659701447663</v>
@@ -662,10 +662,10 @@
         <v>0.2619473549706108</v>
       </c>
       <c r="AB2">
-        <v>0.1088173720878308</v>
+        <v>0.1068328008422586</v>
       </c>
       <c r="AC2">
-        <v>0.15312998288278</v>
+        <v>0.1551145541283522</v>
       </c>
       <c r="AD2">
         <v>123</v>
@@ -784,10 +784,10 @@
         <v>0.4413875598086124</v>
       </c>
       <c r="X3">
-        <v>0.1174606832776711</v>
+        <v>0.1160597904953327</v>
       </c>
       <c r="Y3">
-        <v>0.3239268765309413</v>
+        <v>0.3253277693132798</v>
       </c>
       <c r="Z3">
         <v>0.8196659701447663</v>
@@ -796,10 +796,10 @@
         <v>0.2619473549706108</v>
       </c>
       <c r="AB3">
-        <v>0.1088173720878308</v>
+        <v>0.1068328008422586</v>
       </c>
       <c r="AC3">
-        <v>0.15312998288278</v>
+        <v>0.1551145541283522</v>
       </c>
       <c r="AD3">
         <v>123</v>
@@ -1099,37 +1099,37 @@
         <v>0.159079151577858</v>
       </c>
       <c r="F2">
-        <v>0.68</v>
+        <v>0.88</v>
       </c>
       <c r="G2">
         <v>650.2</v>
       </c>
       <c r="H2">
-        <v>361.703747061107</v>
+        <v>222.579995442967</v>
       </c>
       <c r="I2">
         <v>704</v>
       </c>
       <c r="J2">
-        <v>818.2797470611069</v>
+        <v>833.795995442967</v>
       </c>
       <c r="K2">
         <v>123</v>
       </c>
       <c r="L2">
-        <v>525.776</v>
+        <v>680.4160000000001</v>
       </c>
       <c r="M2">
-        <v>0.108817372087831</v>
+        <v>0.106832800842259</v>
       </c>
       <c r="N2">
-        <v>0.09582670258554341</v>
+        <v>0.0916499898874804</v>
       </c>
       <c r="O2">
-        <v>0.0631272831802361</v>
+        <v>0.058057283180236</v>
       </c>
       <c r="P2">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -1142,19 +1142,19 @@
         </is>
       </c>
       <c r="S2">
-        <v>0.117460683277671</v>
+        <v>0.116059790495333</v>
       </c>
       <c r="T2">
-        <v>0.251225195579823</v>
+        <v>0.634477915729004</v>
       </c>
       <c r="U2">
         <v>1.06231400367949</v>
       </c>
       <c r="V2">
-        <v>2.46010034577803</v>
+        <v>6.22083699854314</v>
       </c>
       <c r="W2">
-        <v>4.555531259388839</v>
+        <v>4.532625329886683</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1163,16 +1163,16 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0158</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="AA2">
         <v>650.2</v>
       </c>
       <c r="AB2">
-        <v>0.09569739542691996</v>
+        <v>0.10049739542692</v>
       </c>
       <c r="AC2">
-        <v>0.08093241433363596</v>
+        <v>0.07443241433363595</v>
       </c>
       <c r="AD2">
         <v>0.22</v>
@@ -1367,13 +1367,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1043889729369042</v>
+        <v>0.1023324279358636</v>
       </c>
       <c r="C2">
-        <v>808.3916598522114</v>
+        <v>807.2554642762439</v>
       </c>
       <c r="D2">
-        <v>739.1916598522114</v>
+        <v>738.0554642762438</v>
       </c>
       <c r="E2">
         <v>-123</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1043889729369042</v>
+        <v>0.1023324279358636</v>
       </c>
       <c r="T2">
         <v>0.9257197914498717</v>
       </c>
       <c r="U2">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V2">
         <v>0.22</v>
       </c>
       <c r="W2">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -1449,13 +1449,13 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <v>0.1042131371964431</v>
+        <v>0.1021611165944047</v>
       </c>
       <c r="C3">
-        <v>802.1297616603179</v>
+        <v>800.8850381652214</v>
       </c>
       <c r="D3">
-        <v>740.6617616603178</v>
+        <v>739.4170381652214</v>
       </c>
       <c r="E3">
         <v>-115.268</v>
@@ -1482,37 +1482,37 @@
         <v>69.7</v>
       </c>
       <c r="M3">
-        <v>0.1755164</v>
+        <v>0.1252584</v>
       </c>
       <c r="N3">
-        <v>69.5244836</v>
+        <v>69.5747416</v>
       </c>
       <c r="O3">
-        <v>15.295386392</v>
+        <v>15.306443152</v>
       </c>
       <c r="P3">
-        <v>54.229097208</v>
+        <v>54.268298448</v>
       </c>
       <c r="Q3">
-        <v>59.929097208</v>
+        <v>59.968298448</v>
       </c>
       <c r="R3">
         <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0.1050869466630738</v>
+        <v>0.1030654107014189</v>
       </c>
       <c r="T3">
         <v>0.9330133413219009</v>
       </c>
       <c r="U3">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
         <v>0.22</v>
       </c>
       <c r="W3">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="Y3">
-        <v>397.1138879329794</v>
+        <v>556.4497071653478</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1531,13 +1531,13 @@
         <v>0.02</v>
       </c>
       <c r="B4">
-        <v>0.1040373014559819</v>
+        <v>0.1019898052529458</v>
       </c>
       <c r="C4">
-        <v>795.87372258777</v>
+        <v>794.5196450359551</v>
       </c>
       <c r="D4">
-        <v>742.13772258777</v>
+        <v>740.7836450359551</v>
       </c>
       <c r="E4">
         <v>-107.536</v>
@@ -1564,37 +1564,37 @@
         <v>69.7</v>
       </c>
       <c r="M4">
-        <v>0.3510328</v>
+        <v>0.2505168</v>
       </c>
       <c r="N4">
-        <v>69.3489672</v>
+        <v>69.4494832</v>
       </c>
       <c r="O4">
-        <v>15.256772784</v>
+        <v>15.278886304</v>
       </c>
       <c r="P4">
-        <v>54.09219441600001</v>
+        <v>54.17059689600001</v>
       </c>
       <c r="Q4">
-        <v>59.79219441600001</v>
+        <v>59.87059689600001</v>
       </c>
       <c r="R4">
         <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0.1057991647510019</v>
+        <v>0.1038133522989243</v>
       </c>
       <c r="T4">
         <v>0.9404557391505023</v>
       </c>
       <c r="U4">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V4">
         <v>0.22</v>
       </c>
       <c r="W4">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="Y4">
-        <v>198.5569439664897</v>
+        <v>278.2248535826739</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1613,13 +1613,13 @@
         <v>0.03</v>
       </c>
       <c r="B5">
-        <v>0.1038614657155207</v>
+        <v>0.1018184939114869</v>
       </c>
       <c r="C5">
-        <v>789.623577731959</v>
+        <v>788.1593128463211</v>
       </c>
       <c r="D5">
-        <v>743.619577731959</v>
+        <v>742.1553128463211</v>
       </c>
       <c r="E5">
         <v>-99.804</v>
@@ -1646,37 +1646,37 @@
         <v>69.7</v>
       </c>
       <c r="M5">
-        <v>0.5265492000000001</v>
+        <v>0.3757752</v>
       </c>
       <c r="N5">
-        <v>69.1734508</v>
+        <v>69.3242248</v>
       </c>
       <c r="O5">
-        <v>15.218159176</v>
+        <v>15.251329456</v>
       </c>
       <c r="P5">
-        <v>53.955291624</v>
+        <v>54.072895344</v>
       </c>
       <c r="Q5">
-        <v>59.655291624</v>
+        <v>59.772895344</v>
       </c>
       <c r="R5">
         <v>0.03092783505154639</v>
       </c>
       <c r="S5">
-        <v>0.1065260677479595</v>
+        <v>0.1045767153726669</v>
       </c>
       <c r="T5">
         <v>0.9480515884807242</v>
       </c>
       <c r="U5">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V5">
         <v>0.22</v>
       </c>
       <c r="W5">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="Y5">
-        <v>132.3712959776598</v>
+        <v>185.4832357217826</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1695,13 +1695,13 @@
         <v>0.04</v>
       </c>
       <c r="B6">
-        <v>0.1036856299750595</v>
+        <v>0.101647182570028</v>
       </c>
       <c r="C6">
-        <v>783.3793624711601</v>
+        <v>781.8040697616514</v>
       </c>
       <c r="D6">
-        <v>745.1073624711601</v>
+        <v>743.5320697616513</v>
       </c>
       <c r="E6">
         <v>-92.072</v>
@@ -1728,37 +1728,37 @@
         <v>69.7</v>
       </c>
       <c r="M6">
-        <v>0.7020656000000001</v>
+        <v>0.5010336</v>
       </c>
       <c r="N6">
-        <v>68.99793440000001</v>
+        <v>69.1989664</v>
       </c>
       <c r="O6">
-        <v>15.179545568</v>
+        <v>15.223772608</v>
       </c>
       <c r="P6">
-        <v>53.818388832</v>
+        <v>53.975193792</v>
       </c>
       <c r="Q6">
-        <v>59.51838883200001</v>
+        <v>59.675193792</v>
       </c>
       <c r="R6">
         <v>0.04166666666666667</v>
       </c>
       <c r="S6">
-        <v>0.1072681145573536</v>
+        <v>0.1053559818437792</v>
       </c>
       <c r="T6">
         <v>0.9558056846719926</v>
       </c>
       <c r="U6">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V6">
         <v>0.22</v>
       </c>
       <c r="W6">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="Y6">
-        <v>99.27847198324487</v>
+        <v>139.112426791337</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0.05</v>
       </c>
       <c r="B7">
-        <v>0.1035097942345983</v>
+        <v>0.1014758712285691</v>
       </c>
       <c r="C7">
-        <v>777.1411124673434</v>
+        <v>775.4539441566623</v>
       </c>
       <c r="D7">
-        <v>746.6011124673433</v>
+        <v>744.9139441566622</v>
       </c>
       <c r="E7">
         <v>-84.34</v>
@@ -1810,37 +1810,37 @@
         <v>69.7</v>
       </c>
       <c r="M7">
-        <v>0.8775820000000001</v>
+        <v>0.6262920000000001</v>
       </c>
       <c r="N7">
-        <v>68.822418</v>
+        <v>69.073708</v>
       </c>
       <c r="O7">
-        <v>15.14093196</v>
+        <v>15.19621576</v>
       </c>
       <c r="P7">
-        <v>53.68148604</v>
+        <v>53.87749224</v>
       </c>
       <c r="Q7">
-        <v>59.38148604</v>
+        <v>59.57749224</v>
       </c>
       <c r="R7">
         <v>0.05263157894736843</v>
       </c>
       <c r="S7">
-        <v>0.1080257834048403</v>
+        <v>0.1061516539248096</v>
       </c>
       <c r="T7">
         <v>0.9637230249936034</v>
       </c>
       <c r="U7">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V7">
         <v>0.22</v>
       </c>
       <c r="W7">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="Y7">
-        <v>79.42277758659588</v>
+        <v>111.2899414330695</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1859,13 +1859,13 @@
         <v>0.06</v>
       </c>
       <c r="B8">
-        <v>0.1033339584941371</v>
+        <v>0.1013045598871102</v>
       </c>
       <c r="C8">
-        <v>770.9088636690287</v>
+        <v>769.1089646174036</v>
       </c>
       <c r="D8">
-        <v>748.1008636690287</v>
+        <v>746.3009646174036</v>
       </c>
       <c r="E8">
         <v>-76.608</v>
@@ -1892,37 +1892,37 @@
         <v>69.7</v>
       </c>
       <c r="M8">
-        <v>1.0530984</v>
+        <v>0.7515504000000001</v>
       </c>
       <c r="N8">
-        <v>68.64690160000001</v>
+        <v>68.9484496</v>
       </c>
       <c r="O8">
-        <v>15.102318352</v>
+        <v>15.168658912</v>
       </c>
       <c r="P8">
-        <v>53.54458324800001</v>
+        <v>53.77979068800001</v>
       </c>
       <c r="Q8">
-        <v>59.24458324800001</v>
+        <v>59.47979068800001</v>
       </c>
       <c r="R8">
         <v>0.06382978723404255</v>
       </c>
       <c r="S8">
-        <v>0.1087995728661033</v>
+        <v>0.1069642551990534</v>
       </c>
       <c r="T8">
         <v>0.9718088193646099</v>
       </c>
       <c r="U8">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V8">
         <v>0.22</v>
       </c>
       <c r="W8">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         </is>
       </c>
       <c r="Y8">
-        <v>66.18564798882991</v>
+        <v>92.7416178608913</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1941,13 +1941,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.1031581227536759</v>
+        <v>0.1011332485456513</v>
       </c>
       <c r="C9">
-        <v>764.6826523141648</v>
+        <v>762.7691599432295</v>
       </c>
       <c r="D9">
-        <v>749.6066523141648</v>
+        <v>747.6931599432295</v>
       </c>
       <c r="E9">
         <v>-68.87599999999999</v>
@@ -1974,37 +1974,37 @@
         <v>69.7</v>
       </c>
       <c r="M9">
-        <v>1.2286148</v>
+        <v>0.8768088000000001</v>
       </c>
       <c r="N9">
-        <v>68.4713852</v>
+        <v>68.8231912</v>
       </c>
       <c r="O9">
-        <v>15.063704744</v>
+        <v>15.141102064</v>
       </c>
       <c r="P9">
-        <v>53.407680456</v>
+        <v>53.68208913599999</v>
       </c>
       <c r="Q9">
-        <v>59.107680456</v>
+        <v>59.382089136</v>
       </c>
       <c r="R9">
         <v>0.07526881720430109</v>
       </c>
       <c r="S9">
-        <v>0.1095900029609419</v>
+        <v>0.1077943317695176</v>
       </c>
       <c r="T9">
         <v>0.9800685017866062</v>
       </c>
       <c r="U9">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V9">
         <v>0.22</v>
       </c>
       <c r="W9">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="Y9">
-        <v>56.73055541899706</v>
+        <v>79.49281530933538</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2023,13 +2023,13 @@
         <v>0.08</v>
       </c>
       <c r="B10">
-        <v>0.1029822870132147</v>
+        <v>0.1009619372041925</v>
       </c>
       <c r="C10">
-        <v>758.4625149330512</v>
+        <v>756.4345591487927</v>
       </c>
       <c r="D10">
-        <v>751.1185149330512</v>
+        <v>749.0905591487926</v>
       </c>
       <c r="E10">
         <v>-61.144</v>
@@ -2056,37 +2056,37 @@
         <v>69.7</v>
       </c>
       <c r="M10">
-        <v>1.4041312</v>
+        <v>1.0020672</v>
       </c>
       <c r="N10">
-        <v>68.29586880000001</v>
+        <v>68.6979328</v>
       </c>
       <c r="O10">
-        <v>15.025091136</v>
+        <v>15.113545216</v>
       </c>
       <c r="P10">
-        <v>53.27077766400001</v>
+        <v>53.58438758400001</v>
       </c>
       <c r="Q10">
-        <v>58.97077766400001</v>
+        <v>59.28438758400001</v>
       </c>
       <c r="R10">
         <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0.1103976163187117</v>
+        <v>0.1086424534828179</v>
       </c>
       <c r="T10">
         <v>0.9885077425221238</v>
       </c>
       <c r="U10">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V10">
         <v>0.22</v>
       </c>
       <c r="W10">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         </is>
       </c>
       <c r="Y10">
-        <v>49.63923599162244</v>
+        <v>69.55621339566848</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2105,13 +2105,13 @@
         <v>0.09</v>
       </c>
       <c r="B11">
-        <v>0.1028064512727536</v>
+        <v>0.1007906258627335</v>
       </c>
       <c r="C11">
-        <v>752.2484883512903</v>
+        <v>750.1051914660588</v>
       </c>
       <c r="D11">
-        <v>752.6364883512903</v>
+        <v>750.4931914660588</v>
       </c>
       <c r="E11">
         <v>-53.41199999999999</v>
@@ -2138,37 +2138,37 @@
         <v>69.7</v>
       </c>
       <c r="M11">
-        <v>1.5796476</v>
+        <v>1.1273256</v>
       </c>
       <c r="N11">
-        <v>68.1203524</v>
+        <v>68.5726744</v>
       </c>
       <c r="O11">
-        <v>14.986477528</v>
+        <v>15.085988368</v>
       </c>
       <c r="P11">
-        <v>53.133874872</v>
+        <v>53.48668603199999</v>
       </c>
       <c r="Q11">
-        <v>58.833874872</v>
+        <v>59.186686032</v>
       </c>
       <c r="R11">
         <v>0.0989010989010989</v>
       </c>
       <c r="S11">
-        <v>0.1112229794206083</v>
+        <v>0.1095092152337731</v>
       </c>
       <c r="T11">
         <v>0.9971324610760047</v>
       </c>
       <c r="U11">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V11">
         <v>0.22</v>
       </c>
       <c r="W11">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="Y11">
-        <v>44.1237653258866</v>
+        <v>61.8277452405942</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2187,13 +2187,13 @@
         <v>0.1</v>
       </c>
       <c r="B12">
-        <v>0.1026306155322924</v>
+        <v>0.1006193145212746</v>
       </c>
       <c r="C12">
-        <v>746.040609692779</v>
+        <v>743.7810863463457</v>
       </c>
       <c r="D12">
-        <v>754.160609692779</v>
+        <v>751.9010863463457</v>
       </c>
       <c r="E12">
         <v>-45.67999999999999</v>
@@ -2220,37 +2220,37 @@
         <v>69.7</v>
       </c>
       <c r="M12">
-        <v>1.755164</v>
+        <v>1.252584</v>
       </c>
       <c r="N12">
-        <v>67.94483600000001</v>
+        <v>68.447416</v>
       </c>
       <c r="O12">
-        <v>14.94786392</v>
+        <v>15.05843152</v>
       </c>
       <c r="P12">
-        <v>52.99697208000001</v>
+        <v>53.38898448</v>
       </c>
       <c r="Q12">
-        <v>58.69697208000001</v>
+        <v>59.08898448000001</v>
       </c>
       <c r="R12">
         <v>0.1111111111111111</v>
       </c>
       <c r="S12">
-        <v>0.1120666839247693</v>
+        <v>0.1103952383569718</v>
       </c>
       <c r="T12">
         <v>1.005948840042194</v>
       </c>
       <c r="U12">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V12">
         <v>0.22</v>
       </c>
       <c r="W12">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         </is>
       </c>
       <c r="Y12">
-        <v>39.71138879329795</v>
+        <v>55.64497071653478</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2269,13 +2269,13 @@
         <v>0.11</v>
       </c>
       <c r="B13">
-        <v>0.1024547797918312</v>
+        <v>0.1004480031798158</v>
       </c>
       <c r="C13">
-        <v>739.8389163827335</v>
+        <v>737.4622734623847</v>
       </c>
       <c r="D13">
-        <v>755.6909163827335</v>
+        <v>753.3142734623847</v>
       </c>
       <c r="E13">
         <v>-37.94799999999999</v>
@@ -2302,37 +2302,37 @@
         <v>69.7</v>
       </c>
       <c r="M13">
-        <v>1.9306804</v>
+        <v>1.3778424</v>
       </c>
       <c r="N13">
-        <v>67.7693196</v>
+        <v>68.3221576</v>
       </c>
       <c r="O13">
-        <v>14.909250312</v>
+        <v>15.030874672</v>
       </c>
       <c r="P13">
-        <v>52.86006928800001</v>
+        <v>53.291282928</v>
       </c>
       <c r="Q13">
-        <v>58.56006928800001</v>
+        <v>58.991282928</v>
       </c>
       <c r="R13">
         <v>0.1235955056179775</v>
       </c>
       <c r="S13">
-        <v>0.1129293480807092</v>
+        <v>0.1113011721121525</v>
       </c>
       <c r="T13">
         <v>1.014963339884028</v>
       </c>
       <c r="U13">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V13">
         <v>0.22</v>
       </c>
       <c r="W13">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         </is>
       </c>
       <c r="Y13">
-        <v>36.10126253936177</v>
+        <v>50.58633701503162</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2351,13 +2351,13 @@
         <v>0.12</v>
       </c>
       <c r="B14">
-        <v>0.10227894405137</v>
+        <v>0.1002766918383569</v>
       </c>
       <c r="C14">
-        <v>733.6434461507546</v>
+        <v>731.1487827104047</v>
       </c>
       <c r="D14">
-        <v>757.2274461507545</v>
+        <v>754.7327827104046</v>
       </c>
       <c r="E14">
         <v>-30.21599999999999</v>
@@ -2384,37 +2384,37 @@
         <v>69.7</v>
       </c>
       <c r="M14">
-        <v>2.1061968</v>
+        <v>1.5031008</v>
       </c>
       <c r="N14">
-        <v>67.5938032</v>
+        <v>68.1968992</v>
       </c>
       <c r="O14">
-        <v>14.870636704</v>
+        <v>15.003317824</v>
       </c>
       <c r="P14">
-        <v>52.723166496</v>
+        <v>53.193581376</v>
       </c>
       <c r="Q14">
-        <v>58.423166496</v>
+        <v>58.89358137600001</v>
       </c>
       <c r="R14">
         <v>0.1363636363636364</v>
       </c>
       <c r="S14">
-        <v>0.1138116182401932</v>
+        <v>0.1122276952708601</v>
       </c>
       <c r="T14">
         <v>1.024182714722267</v>
       </c>
       <c r="U14">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V14">
         <v>0.22</v>
       </c>
       <c r="W14">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="Y14">
-        <v>33.09282399441495</v>
+        <v>46.37080893044565</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2433,13 +2433,13 @@
         <v>0.13</v>
       </c>
       <c r="B15">
-        <v>0.1021031083109088</v>
+        <v>0.1001053804968979</v>
       </c>
       <c r="C15">
-        <v>727.4542370339266</v>
+        <v>724.8406442122413</v>
       </c>
       <c r="D15">
-        <v>758.7702370339265</v>
+        <v>756.1566442122412</v>
       </c>
       <c r="E15">
         <v>-22.48399999999999</v>
@@ -2466,37 +2466,37 @@
         <v>69.7</v>
       </c>
       <c r="M15">
-        <v>2.2817132</v>
+        <v>1.6283592</v>
       </c>
       <c r="N15">
-        <v>67.4182868</v>
+        <v>68.0716408</v>
       </c>
       <c r="O15">
-        <v>14.832023096</v>
+        <v>14.975760976</v>
       </c>
       <c r="P15">
-        <v>52.586263704</v>
+        <v>53.09587982399999</v>
       </c>
       <c r="Q15">
-        <v>58.28626370400001</v>
+        <v>58.795879824</v>
       </c>
       <c r="R15">
         <v>0.1494252873563219</v>
       </c>
       <c r="S15">
-        <v>0.1147141704723089</v>
+        <v>0.1131755178125264</v>
       </c>
       <c r="T15">
         <v>1.03361402921196</v>
       </c>
       <c r="U15">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V15">
         <v>0.22</v>
       </c>
       <c r="W15">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="Y15">
-        <v>30.54722214869073</v>
+        <v>42.80382362810367</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2515,13 +2515,13 @@
         <v>0.14</v>
       </c>
       <c r="B16">
-        <v>0.1019272725704476</v>
+        <v>0.09993406915543904</v>
       </c>
       <c r="C16">
-        <v>721.2713273799566</v>
+        <v>718.5378883174672</v>
       </c>
       <c r="D16">
-        <v>760.3193273799566</v>
+        <v>757.5858883174672</v>
       </c>
       <c r="E16">
         <v>-14.75199999999998</v>
@@ -2548,37 +2548,37 @@
         <v>69.7</v>
       </c>
       <c r="M16">
-        <v>2.457229600000001</v>
+        <v>1.7536176</v>
       </c>
       <c r="N16">
-        <v>67.2427704</v>
+        <v>67.9463824</v>
       </c>
       <c r="O16">
-        <v>14.793409488</v>
+        <v>14.948204128</v>
       </c>
       <c r="P16">
-        <v>52.449360912</v>
+        <v>52.998178272</v>
       </c>
       <c r="Q16">
-        <v>58.149360912</v>
+        <v>58.69817827200001</v>
       </c>
       <c r="R16">
         <v>0.1627906976744186</v>
       </c>
       <c r="S16">
-        <v>0.1156377122912181</v>
+        <v>0.1141453827388826</v>
       </c>
       <c r="T16">
         <v>1.043264676596762</v>
       </c>
       <c r="U16">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V16">
         <v>0.22</v>
       </c>
       <c r="W16">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="Y16">
-        <v>28.36527770949852</v>
+        <v>39.7464076546677</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2597,13 +2597,13 @@
         <v>0.15</v>
       </c>
       <c r="B17">
-        <v>0.1017514368299864</v>
+        <v>0.09976275781398015</v>
       </c>
       <c r="C17">
-        <v>715.0947558503524</v>
+        <v>712.240545605551</v>
       </c>
       <c r="D17">
-        <v>761.8747558503524</v>
+        <v>759.020545605551</v>
       </c>
       <c r="E17">
         <v>-7.019999999999996</v>
@@ -2630,37 +2630,37 @@
         <v>69.7</v>
       </c>
       <c r="M17">
-        <v>2.632746</v>
+        <v>1.878876</v>
       </c>
       <c r="N17">
-        <v>67.06725400000001</v>
+        <v>67.821124</v>
       </c>
       <c r="O17">
-        <v>14.75479588</v>
+        <v>14.92064728</v>
       </c>
       <c r="P17">
-        <v>52.31245812</v>
+        <v>52.90047672</v>
       </c>
       <c r="Q17">
-        <v>58.01245812000001</v>
+        <v>58.60047672</v>
       </c>
       <c r="R17">
         <v>0.1764705882352941</v>
       </c>
       <c r="S17">
-        <v>0.1165829845058664</v>
+        <v>0.1151380680164472</v>
       </c>
       <c r="T17">
         <v>1.053142398037678</v>
       </c>
       <c r="U17">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V17">
         <v>0.22</v>
       </c>
       <c r="W17">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         </is>
       </c>
       <c r="Y17">
-        <v>26.47425919553196</v>
+        <v>37.09664714435652</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0.16</v>
       </c>
       <c r="B18">
-        <v>0.1015756010895252</v>
+        <v>0.09959144647252123</v>
       </c>
       <c r="C18">
-        <v>708.924561423639</v>
+        <v>705.9486468880368</v>
       </c>
       <c r="D18">
-        <v>763.436561423639</v>
+        <v>760.4606468880368</v>
       </c>
       <c r="E18">
         <v>0.7120000000000033</v>
@@ -2712,37 +2712,37 @@
         <v>69.7</v>
       </c>
       <c r="M18">
-        <v>2.8082624</v>
+        <v>2.0041344</v>
       </c>
       <c r="N18">
-        <v>66.8917376</v>
+        <v>67.6958656</v>
       </c>
       <c r="O18">
-        <v>14.716182272</v>
+        <v>14.893090432</v>
       </c>
       <c r="P18">
-        <v>52.175555328</v>
+        <v>52.802775168</v>
       </c>
       <c r="Q18">
-        <v>57.875555328</v>
+        <v>58.50277516800001</v>
       </c>
       <c r="R18">
         <v>0.1904761904761905</v>
       </c>
       <c r="S18">
-        <v>0.1175507632018158</v>
+        <v>0.1161543886577634</v>
       </c>
       <c r="T18">
         <v>1.063255303322424</v>
       </c>
       <c r="U18">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V18">
         <v>0.22</v>
       </c>
       <c r="W18">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="Y18">
-        <v>24.81961799581121</v>
+        <v>34.77810669783424</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0.17</v>
       </c>
       <c r="B19">
-        <v>0.101399765349064</v>
+        <v>0.09942013513106236</v>
       </c>
       <c r="C19">
-        <v>702.7607833986135</v>
+        <v>699.6622232107488</v>
       </c>
       <c r="D19">
-        <v>765.0047833986135</v>
+        <v>761.9062232107487</v>
       </c>
       <c r="E19">
         <v>8.444000000000017</v>
@@ -2794,37 +2794,37 @@
         <v>69.7</v>
       </c>
       <c r="M19">
-        <v>2.983778800000001</v>
+        <v>2.1293928</v>
       </c>
       <c r="N19">
-        <v>66.71622120000001</v>
+        <v>67.5706072</v>
       </c>
       <c r="O19">
-        <v>14.677568664</v>
+        <v>14.865533584</v>
       </c>
       <c r="P19">
-        <v>52.03865253600001</v>
+        <v>52.705073616</v>
       </c>
       <c r="Q19">
-        <v>57.73865253600001</v>
+        <v>58.405073616</v>
       </c>
       <c r="R19">
         <v>0.2048192771084338</v>
       </c>
       <c r="S19">
-        <v>0.1185418618663422</v>
+        <v>0.1171951989530872</v>
       </c>
       <c r="T19">
         <v>1.073611893071863</v>
       </c>
       <c r="U19">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V19">
         <v>0.22</v>
       </c>
       <c r="W19">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="Y19">
-        <v>23.35964046664585</v>
+        <v>32.73233571560869</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>0.18</v>
       </c>
       <c r="B20">
-        <v>0.1012239296086029</v>
+        <v>0.09924882378960344</v>
       </c>
       <c r="C20">
-        <v>696.6034613976424</v>
+        <v>693.3813058560253</v>
       </c>
       <c r="D20">
-        <v>766.5794613976424</v>
+        <v>763.3573058560253</v>
       </c>
       <c r="E20">
         <v>16.17600000000002</v>
@@ -2876,37 +2876,37 @@
         <v>69.7</v>
       </c>
       <c r="M20">
-        <v>3.159295200000001</v>
+        <v>2.2546512</v>
       </c>
       <c r="N20">
-        <v>66.5407048</v>
+        <v>67.4453488</v>
       </c>
       <c r="O20">
-        <v>14.638955056</v>
+        <v>14.837976736</v>
       </c>
       <c r="P20">
-        <v>51.901749744</v>
+        <v>52.607372064</v>
       </c>
       <c r="Q20">
-        <v>57.601749744</v>
+        <v>58.30737206400001</v>
       </c>
       <c r="R20">
         <v>0.2195121951219512</v>
       </c>
       <c r="S20">
-        <v>0.1195571336690279</v>
+        <v>0.11826139486537</v>
       </c>
       <c r="T20">
         <v>1.084221082571289</v>
       </c>
       <c r="U20">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V20">
         <v>0.22</v>
       </c>
       <c r="W20">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="Y20">
-        <v>22.0618826629433</v>
+        <v>30.9138726202971</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2925,13 +2925,13 @@
         <v>0.19</v>
       </c>
       <c r="B21">
-        <v>0.1010480938681417</v>
+        <v>0.09907751244814456</v>
       </c>
       <c r="C21">
-        <v>690.4526353699974</v>
+        <v>687.105926344972</v>
       </c>
       <c r="D21">
-        <v>768.1606353699974</v>
+        <v>764.8139263449719</v>
       </c>
       <c r="E21">
         <v>23.90800000000002</v>
@@ -2958,37 +2958,37 @@
         <v>69.7</v>
       </c>
       <c r="M21">
-        <v>3.334811600000001</v>
+        <v>2.3799096</v>
       </c>
       <c r="N21">
-        <v>66.36518840000001</v>
+        <v>67.3200904</v>
       </c>
       <c r="O21">
-        <v>14.600341448</v>
+        <v>14.810419888</v>
       </c>
       <c r="P21">
-        <v>51.76484695200001</v>
+        <v>52.509670512</v>
       </c>
       <c r="Q21">
-        <v>57.46484695200001</v>
+        <v>58.209670512</v>
       </c>
       <c r="R21">
         <v>0.2345679012345679</v>
       </c>
       <c r="S21">
-        <v>0.120597473911286</v>
+        <v>0.1193539166026476</v>
       </c>
       <c r="T21">
         <v>1.095092227366997</v>
       </c>
       <c r="U21">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V21">
         <v>0.22</v>
       </c>
       <c r="W21">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="Y21">
-        <v>20.90073094384103</v>
+        <v>29.28682669291304</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3007,13 +3007,13 @@
         <v>0.2</v>
       </c>
       <c r="B22">
-        <v>0.1008722581276805</v>
+        <v>0.09890620110668563</v>
       </c>
       <c r="C22">
-        <v>684.3083455952359</v>
+        <v>680.8361164397471</v>
       </c>
       <c r="D22">
-        <v>769.7483455952358</v>
+        <v>766.2761164397471</v>
       </c>
       <c r="E22">
         <v>31.64000000000001</v>
@@ -3040,37 +3040,37 @@
         <v>69.7</v>
       </c>
       <c r="M22">
-        <v>3.510328</v>
+        <v>2.505168</v>
       </c>
       <c r="N22">
-        <v>66.189672</v>
+        <v>67.19483200000001</v>
       </c>
       <c r="O22">
-        <v>14.56172784</v>
+        <v>14.78286304</v>
       </c>
       <c r="P22">
-        <v>51.62794416</v>
+        <v>52.41196896</v>
       </c>
       <c r="Q22">
-        <v>57.32794416</v>
+        <v>58.11196896000001</v>
       </c>
       <c r="R22">
         <v>0.25</v>
       </c>
       <c r="S22">
-        <v>0.1216638226596006</v>
+        <v>0.120473751383357</v>
       </c>
       <c r="T22">
         <v>1.106235150782597</v>
       </c>
       <c r="U22">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V22">
         <v>0.22</v>
       </c>
       <c r="W22">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         </is>
       </c>
       <c r="Y22">
-        <v>19.85569439664897</v>
+        <v>27.82248535826739</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0.21</v>
       </c>
       <c r="B23">
-        <v>0.1006964223872193</v>
+        <v>0.09873488976522674</v>
       </c>
       <c r="C23">
-        <v>678.1706326866185</v>
+        <v>674.5719081458676</v>
       </c>
       <c r="D23">
-        <v>771.3426326866185</v>
+        <v>767.7439081458676</v>
       </c>
       <c r="E23">
         <v>39.37200000000001</v>
@@ -3122,37 +3122,37 @@
         <v>69.7</v>
       </c>
       <c r="M23">
-        <v>3.685844400000001</v>
+        <v>2.6304264</v>
       </c>
       <c r="N23">
-        <v>66.01415560000001</v>
+        <v>67.0695736</v>
       </c>
       <c r="O23">
-        <v>14.523114232</v>
+        <v>14.755306192</v>
       </c>
       <c r="P23">
-        <v>51.491041368</v>
+        <v>52.314267408</v>
       </c>
       <c r="Q23">
-        <v>57.19104136800001</v>
+        <v>58.014267408</v>
       </c>
       <c r="R23">
         <v>0.2658227848101266</v>
       </c>
       <c r="S23">
-        <v>0.1227571675787586</v>
+        <v>0.1216219364116794</v>
       </c>
       <c r="T23">
         <v>1.117660173525174</v>
       </c>
       <c r="U23">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V23">
         <v>0.22</v>
       </c>
       <c r="W23">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="Y23">
-        <v>18.91018513966569</v>
+        <v>26.4976051031118</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3171,13 +3171,13 @@
         <v>0.22</v>
       </c>
       <c r="B24">
-        <v>0.1005205866467581</v>
+        <v>0.09856357842376784</v>
       </c>
       <c r="C24">
-        <v>672.0395375945749</v>
+        <v>668.3133337145466</v>
       </c>
       <c r="D24">
-        <v>772.9435375945749</v>
+        <v>769.2173337145466</v>
       </c>
       <c r="E24">
         <v>47.10400000000001</v>
@@ -3204,37 +3204,37 @@
         <v>69.7</v>
       </c>
       <c r="M24">
-        <v>3.8613608</v>
+        <v>2.7556848</v>
       </c>
       <c r="N24">
-        <v>65.8386392</v>
+        <v>66.94431520000001</v>
       </c>
       <c r="O24">
-        <v>14.484500624</v>
+        <v>14.727749344</v>
       </c>
       <c r="P24">
-        <v>51.354138576</v>
+        <v>52.216565856</v>
       </c>
       <c r="Q24">
-        <v>57.05413857600001</v>
+        <v>57.91656585600001</v>
       </c>
       <c r="R24">
         <v>0.282051282051282</v>
       </c>
       <c r="S24">
-        <v>0.1238785469830232</v>
+        <v>0.1227995620817536</v>
       </c>
       <c r="T24">
         <v>1.129378145568843</v>
       </c>
       <c r="U24">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V24">
         <v>0.22</v>
       </c>
       <c r="W24">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="Y24">
-        <v>18.05063126968088</v>
+        <v>25.29316850751581</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3253,13 +3253,13 @@
         <v>0.23</v>
       </c>
       <c r="B25">
-        <v>0.1003447509062969</v>
+        <v>0.09839226708230894</v>
       </c>
       <c r="C25">
-        <v>665.915101610208</v>
+        <v>662.0604256450544</v>
       </c>
       <c r="D25">
-        <v>774.551101610208</v>
+        <v>770.6964256450543</v>
       </c>
       <c r="E25">
         <v>54.83600000000001</v>
@@ -3286,37 +3286,37 @@
         <v>69.7</v>
       </c>
       <c r="M25">
-        <v>4.0368772</v>
+        <v>2.8809432</v>
       </c>
       <c r="N25">
-        <v>65.6631228</v>
+        <v>66.8190568</v>
       </c>
       <c r="O25">
-        <v>14.445887016</v>
+        <v>14.700192496</v>
       </c>
       <c r="P25">
-        <v>51.217235784</v>
+        <v>52.118864304</v>
       </c>
       <c r="Q25">
-        <v>56.917235784</v>
+        <v>57.818864304</v>
       </c>
       <c r="R25">
         <v>0.2987012987012987</v>
       </c>
       <c r="S25">
-        <v>0.1250290531250609</v>
+        <v>0.1240077754315701</v>
       </c>
       <c r="T25">
         <v>1.141400480522738</v>
       </c>
       <c r="U25">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V25">
         <v>0.22</v>
       </c>
       <c r="W25">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="Y25">
-        <v>17.26582121447737</v>
+        <v>24.19346552892817</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3335,13 +3335,13 @@
         <v>0.24</v>
       </c>
       <c r="B26">
-        <v>0.1001689151658357</v>
+        <v>0.09822095574085005</v>
       </c>
       <c r="C26">
-        <v>659.7973663688454</v>
+        <v>655.8132166871077</v>
       </c>
       <c r="D26">
-        <v>776.1653663688453</v>
+        <v>772.1812166871076</v>
       </c>
       <c r="E26">
         <v>62.56800000000001</v>
@@ -3368,37 +3368,37 @@
         <v>69.7</v>
       </c>
       <c r="M26">
-        <v>4.2123936</v>
+        <v>3.0062016</v>
       </c>
       <c r="N26">
-        <v>65.4876064</v>
+        <v>66.69379840000001</v>
       </c>
       <c r="O26">
-        <v>14.407273408</v>
+        <v>14.672635648</v>
       </c>
       <c r="P26">
-        <v>51.080332992</v>
+        <v>52.021162752</v>
       </c>
       <c r="Q26">
-        <v>56.78033299200001</v>
+        <v>57.72116275200001</v>
       </c>
       <c r="R26">
         <v>0.3157894736842105</v>
       </c>
       <c r="S26">
-        <v>0.1262098357445207</v>
+        <v>0.1252477838695395</v>
       </c>
       <c r="T26">
         <v>1.153739192712261</v>
       </c>
       <c r="U26">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V26">
         <v>0.22</v>
       </c>
       <c r="W26">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         </is>
       </c>
       <c r="Y26">
-        <v>16.54641199720748</v>
+        <v>23.18540446522282</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -3417,13 +3417,13 @@
         <v>0.25</v>
       </c>
       <c r="B27">
-        <v>0.09999307942537453</v>
+        <v>0.09804964439939112</v>
       </c>
       <c r="C27">
-        <v>653.6863738536322</v>
+        <v>649.5717398432878</v>
       </c>
       <c r="D27">
-        <v>777.7863738536321</v>
+        <v>773.6717398432878</v>
       </c>
       <c r="E27">
         <v>70.30000000000001</v>
@@ -3450,37 +3450,37 @@
         <v>69.7</v>
       </c>
       <c r="M27">
-        <v>4.387910000000001</v>
+        <v>3.13146</v>
       </c>
       <c r="N27">
-        <v>65.31209</v>
+        <v>66.56854</v>
       </c>
       <c r="O27">
-        <v>14.3686598</v>
+        <v>14.6450788</v>
       </c>
       <c r="P27">
-        <v>50.94343019999999</v>
+        <v>51.9234612</v>
       </c>
       <c r="Q27">
-        <v>56.6434302</v>
+        <v>57.6234612</v>
       </c>
       <c r="R27">
         <v>0.3333333333333333</v>
       </c>
       <c r="S27">
-        <v>0.1274221059004994</v>
+        <v>0.1265208591991882</v>
       </c>
       <c r="T27">
         <v>1.166406937226838</v>
       </c>
       <c r="U27">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V27">
         <v>0.22</v>
       </c>
       <c r="W27">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         </is>
       </c>
       <c r="Y27">
-        <v>15.88455551731918</v>
+        <v>22.25798828661391</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3499,13 +3499,13 @@
         <v>0.26</v>
       </c>
       <c r="B28">
-        <v>0.09981724368491335</v>
+        <v>0.09787833305793224</v>
       </c>
       <c r="C28">
-        <v>647.5821663991726</v>
+        <v>643.3360283714846</v>
       </c>
       <c r="D28">
-        <v>779.4141663991726</v>
+        <v>775.1680283714846</v>
       </c>
       <c r="E28">
         <v>78.03200000000001</v>
@@ -3532,37 +3532,37 @@
         <v>69.7</v>
       </c>
       <c r="M28">
-        <v>4.563426400000001</v>
+        <v>3.2567184</v>
       </c>
       <c r="N28">
-        <v>65.13657360000001</v>
+        <v>66.44328160000001</v>
       </c>
       <c r="O28">
-        <v>14.330046192</v>
+        <v>14.617521952</v>
       </c>
       <c r="P28">
-        <v>50.80652740800001</v>
+        <v>51.825759648</v>
       </c>
       <c r="Q28">
-        <v>56.50652740800001</v>
+        <v>57.525759648</v>
       </c>
       <c r="R28">
         <v>0.3513513513513514</v>
       </c>
       <c r="S28">
-        <v>0.1286671401147478</v>
+        <v>0.1278283419701787</v>
       </c>
       <c r="T28">
         <v>1.179417053214783</v>
       </c>
       <c r="U28">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V28">
         <v>0.22</v>
       </c>
       <c r="W28">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         </is>
       </c>
       <c r="Y28">
-        <v>15.27361107434536</v>
+        <v>21.40191181405184</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3581,13 +3581,13 @@
         <v>0.27</v>
       </c>
       <c r="B29">
-        <v>0.09964140794445214</v>
+        <v>0.09770702171647336</v>
       </c>
       <c r="C29">
-        <v>641.4847866952149</v>
+        <v>637.1061157873716</v>
       </c>
       <c r="D29">
-        <v>781.0487866952149</v>
+        <v>776.6701157873715</v>
       </c>
       <c r="E29">
         <v>85.76400000000004</v>
@@ -3614,37 +3614,37 @@
         <v>69.7</v>
       </c>
       <c r="M29">
-        <v>4.738942800000001</v>
+        <v>3.3819768</v>
       </c>
       <c r="N29">
-        <v>64.9610572</v>
+        <v>66.3180232</v>
       </c>
       <c r="O29">
-        <v>14.291432584</v>
+        <v>14.589965104</v>
       </c>
       <c r="P29">
-        <v>50.669624616</v>
+        <v>51.728058096</v>
       </c>
       <c r="Q29">
-        <v>56.369624616</v>
+        <v>57.428058096</v>
       </c>
       <c r="R29">
         <v>0.3698630136986302</v>
       </c>
       <c r="S29">
-        <v>0.1299462848554139</v>
+        <v>0.1291716461869498</v>
       </c>
       <c r="T29">
         <v>1.192783610736643</v>
       </c>
       <c r="U29">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V29">
         <v>0.22</v>
       </c>
       <c r="W29">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="Y29">
-        <v>14.70792177529553</v>
+        <v>20.6092484135314</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>0.28</v>
       </c>
       <c r="B30">
-        <v>0.09946557220399097</v>
+        <v>0.09753571037501443</v>
       </c>
       <c r="C30">
-        <v>635.3942777903812</v>
+        <v>630.8820358669075</v>
       </c>
       <c r="D30">
-        <v>782.6902777903813</v>
+        <v>778.1780358669074</v>
       </c>
       <c r="E30">
         <v>93.49600000000004</v>
@@ -3696,37 +3696,37 @@
         <v>69.7</v>
       </c>
       <c r="M30">
-        <v>4.914459200000001</v>
+        <v>3.5072352</v>
       </c>
       <c r="N30">
-        <v>64.78554080000001</v>
+        <v>66.19276480000001</v>
       </c>
       <c r="O30">
-        <v>14.252818976</v>
+        <v>14.562408256</v>
       </c>
       <c r="P30">
-        <v>50.53272182400001</v>
+        <v>51.63035654400001</v>
       </c>
       <c r="Q30">
-        <v>56.23272182400001</v>
+        <v>57.33035654400001</v>
       </c>
       <c r="R30">
         <v>0.388888888888889</v>
       </c>
       <c r="S30">
-        <v>0.1312609613944319</v>
+        <v>0.1305522644097423</v>
       </c>
       <c r="T30">
         <v>1.206521461523</v>
       </c>
       <c r="U30">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V30">
         <v>0.22</v>
       </c>
       <c r="W30">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         </is>
       </c>
       <c r="Y30">
-        <v>14.18263885474926</v>
+        <v>19.87320382733385</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -3745,13 +3745,13 @@
         <v>0.29</v>
       </c>
       <c r="B31">
-        <v>0.09928973646352976</v>
+        <v>0.09736439903355552</v>
       </c>
       <c r="C31">
-        <v>629.3106830959505</v>
+        <v>624.6638226488672</v>
       </c>
       <c r="D31">
-        <v>784.3386830959505</v>
+        <v>779.6918226488671</v>
       </c>
       <c r="E31">
         <v>101.228</v>
@@ -3778,37 +3778,37 @@
         <v>69.7</v>
       </c>
       <c r="M31">
-        <v>5.089975600000001</v>
+        <v>3.6324936</v>
       </c>
       <c r="N31">
-        <v>64.6100244</v>
+        <v>66.0675064</v>
       </c>
       <c r="O31">
-        <v>14.214205368</v>
+        <v>14.534851408</v>
       </c>
       <c r="P31">
-        <v>50.395819032</v>
+        <v>51.532654992</v>
       </c>
       <c r="Q31">
-        <v>56.095819032</v>
+        <v>57.232654992</v>
       </c>
       <c r="R31">
         <v>0.4084507042253521</v>
       </c>
       <c r="S31">
-        <v>0.132612671075394</v>
+        <v>0.1319717732866979</v>
       </c>
       <c r="T31">
         <v>1.220646294021648</v>
       </c>
       <c r="U31">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V31">
         <v>0.22</v>
       </c>
       <c r="W31">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="Y31">
-        <v>13.69358234251653</v>
+        <v>19.18792093673613</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3827,13 +3827,13 @@
         <v>0.3</v>
       </c>
       <c r="B32">
-        <v>0.09948830072306857</v>
+        <v>0.09719308769209663</v>
       </c>
       <c r="C32">
-        <v>619.7177105527039</v>
+        <v>618.4515104374043</v>
       </c>
       <c r="D32">
-        <v>782.4777105527039</v>
+        <v>781.2115104374043</v>
       </c>
       <c r="E32">
         <v>108.96</v>
@@ -3860,45 +3860,45 @@
         <v>69.7</v>
       </c>
       <c r="M32">
-        <v>5.636628000000001</v>
+        <v>3.757752</v>
       </c>
       <c r="N32">
-        <v>64.063372</v>
+        <v>65.94224800000001</v>
       </c>
       <c r="O32">
-        <v>14.09394184</v>
+        <v>14.50729456</v>
       </c>
       <c r="P32">
-        <v>49.96943016</v>
+        <v>51.43495344</v>
       </c>
       <c r="Q32">
-        <v>55.66943016</v>
+        <v>57.13495344</v>
       </c>
       <c r="R32">
         <v>0.4285714285714286</v>
       </c>
       <c r="S32">
-        <v>0.1340030010329551</v>
+        <v>0.133431839560138</v>
       </c>
       <c r="T32">
         <v>1.235174693163114</v>
       </c>
       <c r="U32">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V32">
         <v>0.22</v>
       </c>
       <c r="W32">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y32">
-        <v>12.36554904811884</v>
+        <v>18.54832357217826</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0.31</v>
       </c>
       <c r="B33">
-        <v>0.09932494498260738</v>
+        <v>0.09702177635063773</v>
       </c>
       <c r="C33">
-        <v>613.5160584724581</v>
+        <v>612.2451338046425</v>
       </c>
       <c r="D33">
-        <v>784.0080584724581</v>
+        <v>782.7371338046424</v>
       </c>
       <c r="E33">
         <v>116.692</v>
@@ -3942,45 +3942,45 @@
         <v>69.7</v>
       </c>
       <c r="M33">
-        <v>5.824515600000001</v>
+        <v>3.8830104</v>
       </c>
       <c r="N33">
-        <v>63.8754844</v>
+        <v>65.8169896</v>
       </c>
       <c r="O33">
-        <v>14.052606568</v>
+        <v>14.479737712</v>
       </c>
       <c r="P33">
-        <v>49.822877832</v>
+        <v>51.337251888</v>
       </c>
       <c r="Q33">
-        <v>55.52287783200001</v>
+        <v>57.037251888</v>
       </c>
       <c r="R33">
         <v>0.4492753623188406</v>
       </c>
       <c r="S33">
-        <v>0.1354336304095759</v>
+        <v>0.1349342265951272</v>
       </c>
       <c r="T33">
         <v>1.250124205323175</v>
       </c>
       <c r="U33">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V33">
         <v>0.22</v>
       </c>
       <c r="W33">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y33">
-        <v>11.96666036914726</v>
+        <v>17.9499905537209</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0.32</v>
       </c>
       <c r="B34">
-        <v>0.0991615892421462</v>
+        <v>0.09685046500917883</v>
       </c>
       <c r="C34">
-        <v>607.320404145371</v>
+        <v>606.0447275932956</v>
       </c>
       <c r="D34">
-        <v>785.5444041453709</v>
+        <v>784.2687275932956</v>
       </c>
       <c r="E34">
         <v>124.424</v>
@@ -4024,45 +4024,45 @@
         <v>69.7</v>
       </c>
       <c r="M34">
-        <v>6.012403200000001</v>
+        <v>4.0082688</v>
       </c>
       <c r="N34">
-        <v>63.6875968</v>
+        <v>65.69173120000001</v>
       </c>
       <c r="O34">
-        <v>14.011271296</v>
+        <v>14.452180864</v>
       </c>
       <c r="P34">
-        <v>49.676325504</v>
+        <v>51.23955033600001</v>
       </c>
       <c r="Q34">
-        <v>55.37632550400001</v>
+        <v>56.93955033600001</v>
       </c>
       <c r="R34">
         <v>0.4705882352941177</v>
       </c>
       <c r="S34">
-        <v>0.1369063371208032</v>
+        <v>0.1364808014840865</v>
       </c>
       <c r="T34">
         <v>1.265513409017354</v>
       </c>
       <c r="U34">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V34">
         <v>0.22</v>
       </c>
       <c r="W34">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y34">
-        <v>11.59270223261141</v>
+        <v>17.38905334891712</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4073,13 +4073,13 @@
         <v>0.33</v>
       </c>
       <c r="B35">
-        <v>0.09899823350168499</v>
+        <v>0.09667915366771992</v>
       </c>
       <c r="C35">
-        <v>601.1307829003443</v>
+        <v>599.8503269193224</v>
       </c>
       <c r="D35">
-        <v>787.0867829003444</v>
+        <v>785.8063269193224</v>
       </c>
       <c r="E35">
         <v>132.156</v>
@@ -4106,45 +4106,45 @@
         <v>69.7</v>
       </c>
       <c r="M35">
-        <v>6.200290800000001</v>
+        <v>4.133527200000001</v>
       </c>
       <c r="N35">
-        <v>63.4997092</v>
+        <v>65.5664728</v>
       </c>
       <c r="O35">
-        <v>13.969936024</v>
+        <v>14.424624016</v>
       </c>
       <c r="P35">
-        <v>49.529773176</v>
+        <v>51.141848784</v>
       </c>
       <c r="Q35">
-        <v>55.229773176</v>
+        <v>56.84184878400001</v>
       </c>
       <c r="R35">
         <v>0.4925373134328359</v>
       </c>
       <c r="S35">
-        <v>0.1384230052263955</v>
+        <v>0.1380735427876417</v>
       </c>
       <c r="T35">
         <v>1.281361991926285</v>
       </c>
       <c r="U35">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V35">
         <v>0.22</v>
       </c>
       <c r="W35">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y35">
-        <v>11.24140822556258</v>
+        <v>16.86211233834387</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -4155,13 +4155,13 @@
         <v>0.34</v>
       </c>
       <c r="B36">
-        <v>0.09883487776122379</v>
+        <v>0.09650784232626103</v>
       </c>
       <c r="C36">
-        <v>594.9472303442925</v>
+        <v>593.6619671746082</v>
       </c>
       <c r="D36">
-        <v>788.6352303442925</v>
+        <v>787.3499671746082</v>
       </c>
       <c r="E36">
         <v>139.888</v>
@@ -4188,45 +4188,45 @@
         <v>69.7</v>
       </c>
       <c r="M36">
-        <v>6.388178400000001</v>
+        <v>4.2587856</v>
       </c>
       <c r="N36">
-        <v>63.3118216</v>
+        <v>65.44121440000001</v>
       </c>
       <c r="O36">
-        <v>13.928600752</v>
+        <v>14.397067168</v>
       </c>
       <c r="P36">
-        <v>49.383220848</v>
+        <v>51.04414723200001</v>
       </c>
       <c r="Q36">
-        <v>55.083220848</v>
+        <v>56.74414723200001</v>
       </c>
       <c r="R36">
         <v>0.5151515151515152</v>
       </c>
       <c r="S36">
-        <v>0.1399856329715512</v>
+        <v>0.1397145489791834</v>
       </c>
       <c r="T36">
         <v>1.297690834923366</v>
       </c>
       <c r="U36">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V36">
         <v>0.22</v>
       </c>
       <c r="W36">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y36">
-        <v>10.91077857186956</v>
+        <v>16.36616785780435</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -4237,13 +4237,13 @@
         <v>0.35</v>
       </c>
       <c r="B37">
-        <v>0.09867152202076263</v>
+        <v>0.09633653098480215</v>
       </c>
       <c r="C37">
-        <v>588.7697823648814</v>
+        <v>587.4796840296819</v>
       </c>
       <c r="D37">
-        <v>790.1897823648814</v>
+        <v>788.899684029682</v>
       </c>
       <c r="E37">
         <v>147.6200000000001</v>
@@ -4270,45 +4270,45 @@
         <v>69.7</v>
       </c>
       <c r="M37">
-        <v>6.576066000000002</v>
+        <v>4.384044000000001</v>
       </c>
       <c r="N37">
-        <v>63.123934</v>
+        <v>65.315956</v>
       </c>
       <c r="O37">
-        <v>13.88726548</v>
+        <v>14.36951032</v>
       </c>
       <c r="P37">
-        <v>49.23666851999999</v>
+        <v>50.94644568</v>
       </c>
       <c r="Q37">
-        <v>54.93666852</v>
+        <v>56.64644568</v>
       </c>
       <c r="R37">
         <v>0.5384615384615385</v>
       </c>
       <c r="S37">
-        <v>0.1415963415704041</v>
+        <v>0.1414060476689264</v>
       </c>
       <c r="T37">
         <v>1.314522103858818</v>
       </c>
       <c r="U37">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V37">
         <v>0.22</v>
       </c>
       <c r="W37">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y37">
-        <v>10.59904204124472</v>
+        <v>15.89856306186708</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -4319,13 +4319,13 @@
         <v>0.36</v>
       </c>
       <c r="B38">
-        <v>0.09912592628030144</v>
+        <v>0.09616521964334324</v>
       </c>
       <c r="C38">
-        <v>576.7286121104423</v>
+        <v>581.3035134364634</v>
       </c>
       <c r="D38">
-        <v>785.8806121104423</v>
+        <v>790.4555134364633</v>
       </c>
       <c r="E38">
         <v>155.352</v>
@@ -4352,45 +4352,45 @@
         <v>69.7</v>
       </c>
       <c r="M38">
-        <v>7.376328000000002</v>
+        <v>4.5093024</v>
       </c>
       <c r="N38">
-        <v>62.323672</v>
+        <v>65.19069760000001</v>
       </c>
       <c r="O38">
-        <v>13.71120784</v>
+        <v>14.341953472</v>
       </c>
       <c r="P38">
-        <v>48.61246416</v>
+        <v>50.84874412800001</v>
       </c>
       <c r="Q38">
-        <v>54.31246416</v>
+        <v>56.54874412800001</v>
       </c>
       <c r="R38">
         <v>0.5625</v>
       </c>
       <c r="S38">
-        <v>0.143257384812971</v>
+        <v>0.1431504056927238</v>
       </c>
       <c r="T38">
         <v>1.331879349948503</v>
       </c>
       <c r="U38">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V38">
         <v>0.22</v>
       </c>
       <c r="W38">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y38">
-        <v>9.449145970732319</v>
+        <v>15.45693631014855</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -4401,13 +4401,13 @@
         <v>0.37</v>
       </c>
       <c r="B39">
-        <v>0.09897973053984024</v>
+        <v>0.09599390830188434</v>
       </c>
       <c r="C39">
-        <v>570.3778668615209</v>
+        <v>575.1334916310425</v>
       </c>
       <c r="D39">
-        <v>787.2618668615208</v>
+        <v>792.0174916310424</v>
       </c>
       <c r="E39">
         <v>163.084</v>
@@ -4434,45 +4434,45 @@
         <v>69.7</v>
       </c>
       <c r="M39">
-        <v>7.581226000000001</v>
+        <v>4.6345608</v>
       </c>
       <c r="N39">
-        <v>62.118774</v>
+        <v>65.0654392</v>
       </c>
       <c r="O39">
-        <v>13.66613028</v>
+        <v>14.314396624</v>
       </c>
       <c r="P39">
-        <v>48.45264372</v>
+        <v>50.751042576</v>
       </c>
       <c r="Q39">
-        <v>54.15264372</v>
+        <v>56.45104257600001</v>
       </c>
       <c r="R39">
         <v>0.5873015873015873</v>
       </c>
       <c r="S39">
-        <v>0.144971159587048</v>
+        <v>0.1449501401617212</v>
       </c>
       <c r="T39">
         <v>1.349787619723575</v>
       </c>
       <c r="U39">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V39">
         <v>0.22</v>
       </c>
       <c r="W39">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y39">
-        <v>9.193763647199015</v>
+        <v>15.03918127473913</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -4483,13 +4483,13 @@
         <v>0.38</v>
       </c>
       <c r="B40">
-        <v>0.09883353479937906</v>
+        <v>0.09582259696042544</v>
       </c>
       <c r="C40">
-        <v>564.0319855163602</v>
+        <v>568.9696551364939</v>
       </c>
       <c r="D40">
-        <v>788.6479855163602</v>
+        <v>793.5856551364939</v>
       </c>
       <c r="E40">
         <v>170.816</v>
@@ -4516,45 +4516,45 @@
         <v>69.7</v>
       </c>
       <c r="M40">
-        <v>7.786124000000002</v>
+        <v>4.7598192</v>
       </c>
       <c r="N40">
-        <v>61.913876</v>
+        <v>64.94018080000001</v>
       </c>
       <c r="O40">
-        <v>13.62105272</v>
+        <v>14.286839776</v>
       </c>
       <c r="P40">
-        <v>48.29282328</v>
+        <v>50.65334102400001</v>
       </c>
       <c r="Q40">
-        <v>53.99282328</v>
+        <v>56.35334102400001</v>
       </c>
       <c r="R40">
         <v>0.6129032258064516</v>
       </c>
       <c r="S40">
-        <v>0.1467402174183533</v>
+        <v>0.1468079305813313</v>
       </c>
       <c r="T40">
         <v>1.368273575620423</v>
       </c>
       <c r="U40">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V40">
         <v>0.22</v>
       </c>
       <c r="W40">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y40">
-        <v>8.951822498588513</v>
+        <v>14.64341334645652</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -4565,13 +4565,13 @@
         <v>0.39</v>
       </c>
       <c r="B41">
-        <v>0.09868733905891788</v>
+        <v>0.09565128561896652</v>
       </c>
       <c r="C41">
-        <v>557.6909938116539</v>
+        <v>562.8120407657233</v>
       </c>
       <c r="D41">
-        <v>790.0389938116539</v>
+        <v>795.1600407657232</v>
       </c>
       <c r="E41">
         <v>178.548</v>
@@ -4598,45 +4598,45 @@
         <v>69.7</v>
       </c>
       <c r="M41">
-        <v>7.991022000000001</v>
+        <v>4.8850776</v>
       </c>
       <c r="N41">
-        <v>61.708978</v>
+        <v>64.8149224</v>
       </c>
       <c r="O41">
-        <v>13.57597516</v>
+        <v>14.259282928</v>
       </c>
       <c r="P41">
-        <v>48.13300284</v>
+        <v>50.555639472</v>
       </c>
       <c r="Q41">
-        <v>53.83300284000001</v>
+        <v>56.25563947200001</v>
       </c>
       <c r="R41">
         <v>0.639344262295082</v>
       </c>
       <c r="S41">
-        <v>0.148567277145767</v>
+        <v>0.1487266321622402</v>
       </c>
       <c r="T41">
         <v>1.387365628431922</v>
       </c>
       <c r="U41">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V41">
         <v>0.22</v>
       </c>
       <c r="W41">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y41">
-        <v>8.722288588368295</v>
+        <v>14.26794120936789</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -4647,13 +4647,13 @@
         <v>0.4</v>
       </c>
       <c r="B42">
-        <v>0.09854114331845669</v>
+        <v>0.09547997427750762</v>
       </c>
       <c r="C42">
-        <v>551.3549176659928</v>
+        <v>556.6606856243473</v>
       </c>
       <c r="D42">
-        <v>791.4349176659929</v>
+        <v>796.7406856243473</v>
       </c>
       <c r="E42">
         <v>186.28</v>
@@ -4680,45 +4680,45 @@
         <v>69.7</v>
       </c>
       <c r="M42">
-        <v>8.195920000000001</v>
+        <v>5.010336000000001</v>
       </c>
       <c r="N42">
-        <v>61.50408</v>
+        <v>64.68966400000001</v>
       </c>
       <c r="O42">
-        <v>13.5308976</v>
+        <v>14.23172608</v>
       </c>
       <c r="P42">
-        <v>47.9731824</v>
+        <v>50.45793792000001</v>
       </c>
       <c r="Q42">
-        <v>53.6731824</v>
+        <v>56.15793792000001</v>
       </c>
       <c r="R42">
         <v>0.6666666666666667</v>
       </c>
       <c r="S42">
-        <v>0.1504552388640945</v>
+        <v>0.1507092904625127</v>
       </c>
       <c r="T42">
         <v>1.407094083003805</v>
       </c>
       <c r="U42">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V42">
         <v>0.22</v>
       </c>
       <c r="W42">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y42">
-        <v>8.504231373659088</v>
+        <v>13.91124267913369</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -4729,13 +4729,13 @@
         <v>0.41</v>
       </c>
       <c r="B43">
-        <v>0.0983949475779955</v>
+        <v>0.09582034293604874</v>
       </c>
       <c r="C43">
-        <v>545.0237831814745</v>
+        <v>545.7943295969847</v>
       </c>
       <c r="D43">
-        <v>792.8357831814745</v>
+        <v>793.6063295969847</v>
       </c>
       <c r="E43">
         <v>194.0120000000001</v>
@@ -4762,45 +4762,45 @@
         <v>69.7</v>
       </c>
       <c r="M43">
-        <v>8.400818000000003</v>
+        <v>5.642813600000001</v>
       </c>
       <c r="N43">
-        <v>61.299182</v>
+        <v>64.05718640000001</v>
       </c>
       <c r="O43">
-        <v>13.48582004</v>
+        <v>14.092581008</v>
       </c>
       <c r="P43">
-        <v>47.81336196</v>
+        <v>49.964605392</v>
       </c>
       <c r="Q43">
-        <v>53.51336196</v>
+        <v>55.66460539200001</v>
       </c>
       <c r="R43">
         <v>0.6949152542372882</v>
       </c>
       <c r="S43">
-        <v>0.1524071992847381</v>
+        <v>0.1527591575187267</v>
       </c>
       <c r="T43">
         <v>1.427491298747616</v>
       </c>
       <c r="U43">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V43">
         <v>0.22</v>
       </c>
       <c r="W43">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y43">
-        <v>8.296811096252767</v>
+        <v>12.35199404779204</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -4811,13 +4811,13 @@
         <v>0.42</v>
       </c>
       <c r="B44">
-        <v>0.09824875183753433</v>
+        <v>0.09566151159458984</v>
       </c>
       <c r="C44">
-        <v>538.6976166453301</v>
+        <v>539.5218867028384</v>
       </c>
       <c r="D44">
-        <v>794.2416166453301</v>
+        <v>795.0658867028384</v>
       </c>
       <c r="E44">
         <v>201.744</v>
@@ -4844,45 +4844,45 @@
         <v>69.7</v>
       </c>
       <c r="M44">
-        <v>8.605716000000001</v>
+        <v>5.780443200000001</v>
       </c>
       <c r="N44">
-        <v>61.094284</v>
+        <v>63.9195568</v>
       </c>
       <c r="O44">
-        <v>13.44074248</v>
+        <v>14.062302496</v>
       </c>
       <c r="P44">
-        <v>47.65354152</v>
+        <v>49.857254304</v>
       </c>
       <c r="Q44">
-        <v>53.35354152000001</v>
+        <v>55.557254304</v>
       </c>
       <c r="R44">
         <v>0.7241379310344827</v>
       </c>
       <c r="S44">
-        <v>0.154426468685404</v>
+        <v>0.1548797096458445</v>
       </c>
       <c r="T44">
         <v>1.448591866758455</v>
       </c>
       <c r="U44">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V44">
         <v>0.22</v>
       </c>
       <c r="W44">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y44">
-        <v>8.099267974913417</v>
+        <v>12.05789895141604</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -4893,13 +4893,13 @@
         <v>0.43</v>
       </c>
       <c r="B45">
-        <v>0.09810255609707311</v>
+        <v>0.09550268025313094</v>
       </c>
       <c r="C45">
-        <v>532.3764445315702</v>
+        <v>533.2548223749359</v>
       </c>
       <c r="D45">
-        <v>795.6524445315702</v>
+        <v>796.5308223749358</v>
       </c>
       <c r="E45">
         <v>209.476</v>
@@ -4926,45 +4926,45 @@
         <v>69.7</v>
       </c>
       <c r="M45">
-        <v>8.810614000000001</v>
+        <v>5.9180728</v>
       </c>
       <c r="N45">
-        <v>60.889386</v>
+        <v>63.78192720000001</v>
       </c>
       <c r="O45">
-        <v>13.39566492</v>
+        <v>14.032023984</v>
       </c>
       <c r="P45">
-        <v>47.49372108</v>
+        <v>49.74990321600001</v>
       </c>
       <c r="Q45">
-        <v>53.19372108</v>
+        <v>55.44990321600001</v>
       </c>
       <c r="R45">
         <v>0.7543859649122806</v>
       </c>
       <c r="S45">
-        <v>0.1565165896439879</v>
+        <v>0.157074667110756</v>
       </c>
       <c r="T45">
         <v>1.470432805576691</v>
       </c>
       <c r="U45">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V45">
         <v>0.22</v>
       </c>
       <c r="W45">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y45">
-        <v>7.910912905729385</v>
+        <v>11.77748269673195</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -4975,13 +4975,13 @@
         <v>0.44</v>
       </c>
       <c r="B46">
-        <v>0.09833388035661195</v>
+        <v>0.09534384891167207</v>
       </c>
       <c r="C46">
-        <v>522.4144062516991</v>
+        <v>526.9931663987259</v>
       </c>
       <c r="D46">
-        <v>793.422406251699</v>
+        <v>798.0011663987258</v>
       </c>
       <c r="E46">
         <v>217.208</v>
@@ -5008,45 +5008,45 @@
         <v>69.7</v>
       </c>
       <c r="M46">
-        <v>9.3897408</v>
+        <v>6.0557024</v>
       </c>
       <c r="N46">
-        <v>60.3102592</v>
+        <v>63.6442976</v>
       </c>
       <c r="O46">
-        <v>13.268257024</v>
+        <v>14.001745472</v>
       </c>
       <c r="P46">
-        <v>47.042002176</v>
+        <v>49.64255212800001</v>
       </c>
       <c r="Q46">
-        <v>52.74200217600001</v>
+        <v>55.34255212800001</v>
       </c>
       <c r="R46">
         <v>0.7857142857142857</v>
       </c>
       <c r="S46">
-        <v>0.1586813577796642</v>
+        <v>0.1593480159137001</v>
       </c>
       <c r="T46">
         <v>1.49305377792415</v>
       </c>
       <c r="U46">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V46">
         <v>0.22</v>
       </c>
       <c r="W46">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y46">
-        <v>7.422995105466597</v>
+        <v>11.50981263544259</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -5057,13 +5057,13 @@
         <v>0.45</v>
       </c>
       <c r="B47">
-        <v>0.09819626461615075</v>
+        <v>0.09518501757021314</v>
       </c>
       <c r="C47">
-        <v>516.0075562745004</v>
+        <v>520.7369487799924</v>
       </c>
       <c r="D47">
-        <v>794.7475562745004</v>
+        <v>799.4769487799924</v>
       </c>
       <c r="E47">
         <v>224.9400000000001</v>
@@ -5090,45 +5090,45 @@
         <v>69.7</v>
       </c>
       <c r="M47">
-        <v>9.603144000000002</v>
+        <v>6.193332000000001</v>
       </c>
       <c r="N47">
-        <v>60.096856</v>
+        <v>63.506668</v>
       </c>
       <c r="O47">
-        <v>13.22130832</v>
+        <v>13.97146696</v>
       </c>
       <c r="P47">
-        <v>46.87554768</v>
+        <v>49.53520104</v>
       </c>
       <c r="Q47">
-        <v>52.57554768000001</v>
+        <v>55.23520104000001</v>
       </c>
       <c r="R47">
         <v>0.8181818181818181</v>
       </c>
       <c r="S47">
-        <v>0.1609248447566377</v>
+        <v>0.1617040319458421</v>
       </c>
       <c r="T47">
         <v>1.516497331084244</v>
       </c>
       <c r="U47">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V47">
         <v>0.22</v>
       </c>
       <c r="W47">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y47">
-        <v>7.258039658678448</v>
+        <v>11.25403902132164</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5139,13 +5139,13 @@
         <v>0.46</v>
       </c>
       <c r="B48">
-        <v>0.09805864887568956</v>
+        <v>0.09502618622875424</v>
       </c>
       <c r="C48">
-        <v>509.6051401532936</v>
+        <v>514.4861997468948</v>
       </c>
       <c r="D48">
-        <v>796.0771401532936</v>
+        <v>800.9581997468948</v>
       </c>
       <c r="E48">
         <v>232.672</v>
@@ -5172,45 +5172,45 @@
         <v>69.7</v>
       </c>
       <c r="M48">
-        <v>9.8165472</v>
+        <v>6.3309616</v>
       </c>
       <c r="N48">
-        <v>59.8834528</v>
+        <v>63.3690384</v>
       </c>
       <c r="O48">
-        <v>13.174359616</v>
+        <v>13.941188448</v>
       </c>
       <c r="P48">
-        <v>46.709093184</v>
+        <v>49.427849952</v>
       </c>
       <c r="Q48">
-        <v>52.409093184</v>
+        <v>55.12784995200001</v>
       </c>
       <c r="R48">
         <v>0.8518518518518519</v>
       </c>
       <c r="S48">
-        <v>0.1632514238438695</v>
+        <v>0.1641473078310264</v>
       </c>
       <c r="T48">
         <v>1.540809163991009</v>
       </c>
       <c r="U48">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V48">
         <v>0.22</v>
       </c>
       <c r="W48">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y48">
-        <v>7.100256187837614</v>
+        <v>11.009385999119</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -5221,13 +5221,13 @@
         <v>0.47</v>
       </c>
       <c r="B49">
-        <v>0.09792103313522837</v>
+        <v>0.09486735488729535</v>
       </c>
       <c r="C49">
-        <v>503.2071801784113</v>
+        <v>508.2409497520322</v>
       </c>
       <c r="D49">
-        <v>797.4111801784113</v>
+        <v>802.4449497520322</v>
       </c>
       <c r="E49">
         <v>240.4040000000001</v>
@@ -5254,45 +5254,45 @@
         <v>69.7</v>
       </c>
       <c r="M49">
-        <v>10.0299504</v>
+        <v>6.468591200000001</v>
       </c>
       <c r="N49">
-        <v>59.6700496</v>
+        <v>63.2314088</v>
       </c>
       <c r="O49">
-        <v>13.127410912</v>
+        <v>13.910909936</v>
       </c>
       <c r="P49">
-        <v>46.542638688</v>
+        <v>49.320498864</v>
       </c>
       <c r="Q49">
-        <v>52.242638688</v>
+        <v>55.020498864</v>
       </c>
       <c r="R49">
         <v>0.8867924528301887</v>
       </c>
       <c r="S49">
-        <v>0.1656657983683554</v>
+        <v>0.1666827828062176</v>
       </c>
       <c r="T49">
         <v>1.566038424554632</v>
       </c>
       <c r="U49">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V49">
         <v>0.22</v>
       </c>
       <c r="W49">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y49">
-        <v>6.949186907245323</v>
+        <v>10.77514374381859</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -5303,13 +5303,13 @@
         <v>0.48</v>
       </c>
       <c r="B50">
-        <v>0.09778341739476717</v>
+        <v>0.09553220354583643</v>
       </c>
       <c r="C50">
-        <v>496.8136987898508</v>
+        <v>494.3221143650401</v>
       </c>
       <c r="D50">
-        <v>798.7496987898508</v>
+        <v>796.2581143650401</v>
       </c>
       <c r="E50">
         <v>248.136</v>
@@ -5336,45 +5336,45 @@
         <v>69.7</v>
       </c>
       <c r="M50">
-        <v>10.2433536</v>
+        <v>7.422719999999999</v>
       </c>
       <c r="N50">
-        <v>59.4566464</v>
+        <v>62.27728</v>
       </c>
       <c r="O50">
-        <v>13.080462208</v>
+        <v>13.7010016</v>
       </c>
       <c r="P50">
-        <v>46.376184192</v>
+        <v>48.57627840000001</v>
       </c>
       <c r="Q50">
-        <v>52.07618419200001</v>
+        <v>54.27627840000001</v>
       </c>
       <c r="R50">
         <v>0.923076923076923</v>
       </c>
       <c r="S50">
-        <v>0.1681730334514753</v>
+        <v>0.1693157760496855</v>
       </c>
       <c r="T50">
         <v>1.592238041293779</v>
       </c>
       <c r="U50">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V50">
         <v>0.22</v>
       </c>
       <c r="W50">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y50">
-        <v>6.804412180011046</v>
+        <v>9.390088808415246</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -5385,13 +5385,13 @@
         <v>0.49</v>
       </c>
       <c r="B51">
-        <v>0.09764580165430599</v>
+        <v>0.09539053220437754</v>
       </c>
       <c r="C51">
-        <v>490.4247185785308</v>
+        <v>487.9004437627237</v>
       </c>
       <c r="D51">
-        <v>800.0927185785307</v>
+        <v>797.5684437627236</v>
       </c>
       <c r="E51">
         <v>255.868</v>
@@ -5418,45 +5418,45 @@
         <v>69.7</v>
       </c>
       <c r="M51">
-        <v>10.4567568</v>
+        <v>7.577359999999999</v>
       </c>
       <c r="N51">
-        <v>59.2432432</v>
+        <v>62.12264</v>
       </c>
       <c r="O51">
-        <v>13.033513504</v>
+        <v>13.6669808</v>
       </c>
       <c r="P51">
-        <v>46.209729696</v>
+        <v>48.4556592</v>
       </c>
       <c r="Q51">
-        <v>51.90972969600001</v>
+        <v>54.1556592</v>
       </c>
       <c r="R51">
         <v>0.9607843137254901</v>
       </c>
       <c r="S51">
-        <v>0.1707785914790313</v>
+        <v>0.172052023930152</v>
       </c>
       <c r="T51">
         <v>1.619465093983482</v>
       </c>
       <c r="U51">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V51">
         <v>0.22</v>
       </c>
       <c r="W51">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y51">
-        <v>6.665546625316944</v>
+        <v>9.198454342937383</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5467,13 +5467,13 @@
         <v>0.5</v>
       </c>
       <c r="B52">
-        <v>0.09750818591384479</v>
+        <v>0.09524886086291864</v>
       </c>
       <c r="C52">
-        <v>484.040262287565</v>
+        <v>481.4830928482231</v>
       </c>
       <c r="D52">
-        <v>801.440262287565</v>
+        <v>798.8830928482231</v>
       </c>
       <c r="E52">
         <v>263.6</v>
@@ -5500,45 +5500,45 @@
         <v>69.7</v>
       </c>
       <c r="M52">
-        <v>10.67016</v>
+        <v>7.731999999999999</v>
       </c>
       <c r="N52">
-        <v>59.02984</v>
+        <v>61.968</v>
       </c>
       <c r="O52">
-        <v>12.9865648</v>
+        <v>13.63296</v>
       </c>
       <c r="P52">
-        <v>46.0432752</v>
+        <v>48.33504000000001</v>
       </c>
       <c r="Q52">
-        <v>51.7432752</v>
+        <v>54.03504000000001</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
       <c r="S52">
-        <v>0.1734883718276896</v>
+        <v>0.1748977217258373</v>
       </c>
       <c r="T52">
         <v>1.647781228780772</v>
       </c>
       <c r="U52">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V52">
         <v>0.22</v>
       </c>
       <c r="W52">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y52">
-        <v>6.532235692810604</v>
+        <v>9.014485256078636</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -5549,13 +5549,13 @@
         <v>0.51</v>
       </c>
       <c r="B53">
-        <v>0.0973705701733836</v>
+        <v>0.09510718952145975</v>
       </c>
       <c r="C53">
-        <v>477.6603528135436</v>
+        <v>475.0700830175064</v>
       </c>
       <c r="D53">
-        <v>802.7923528135436</v>
+        <v>800.2020830175064</v>
       </c>
       <c r="E53">
         <v>271.3320000000001</v>
@@ -5582,45 +5582,45 @@
         <v>69.7</v>
       </c>
       <c r="M53">
-        <v>10.8835632</v>
+        <v>7.88664</v>
       </c>
       <c r="N53">
-        <v>58.81643680000001</v>
+        <v>61.81336</v>
       </c>
       <c r="O53">
-        <v>12.939616096</v>
+        <v>13.5989392</v>
       </c>
       <c r="P53">
-        <v>45.876820704</v>
+        <v>48.2144208</v>
       </c>
       <c r="Q53">
-        <v>51.57682070400001</v>
+        <v>53.9144208</v>
       </c>
       <c r="R53">
         <v>1.040816326530612</v>
       </c>
       <c r="S53">
-        <v>0.1763087554558849</v>
+        <v>0.1778595704519587</v>
       </c>
       <c r="T53">
         <v>1.677253124182033</v>
       </c>
       <c r="U53">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V53">
         <v>0.22</v>
       </c>
       <c r="W53">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y53">
-        <v>6.404152640010397</v>
+        <v>8.837730643214348</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -5631,13 +5631,13 @@
         <v>0.52</v>
       </c>
       <c r="B54">
-        <v>0.09784135443292243</v>
+        <v>0.09496551818000083</v>
       </c>
       <c r="C54">
-        <v>465.321627266469</v>
+        <v>468.6614358080786</v>
       </c>
       <c r="D54">
-        <v>798.1856272664689</v>
+        <v>801.5254358080786</v>
       </c>
       <c r="E54">
         <v>279.064</v>
@@ -5664,45 +5664,45 @@
         <v>69.7</v>
       </c>
       <c r="M54">
-        <v>11.7000624</v>
+        <v>8.041279999999999</v>
       </c>
       <c r="N54">
-        <v>57.9999376</v>
+        <v>61.65872</v>
       </c>
       <c r="O54">
-        <v>12.759986272</v>
+        <v>13.5649184</v>
       </c>
       <c r="P54">
-        <v>45.239951328</v>
+        <v>48.09380160000001</v>
       </c>
       <c r="Q54">
-        <v>50.93995132800001</v>
+        <v>53.79380160000001</v>
       </c>
       <c r="R54">
         <v>1.083333333333333</v>
       </c>
       <c r="S54">
-        <v>0.1792466550685884</v>
+        <v>0.1809448295416684</v>
       </c>
       <c r="T54">
         <v>1.707953015225014</v>
       </c>
       <c r="U54">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V54">
         <v>0.22</v>
       </c>
       <c r="W54">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y54">
-        <v>5.957233185354635</v>
+        <v>8.667774284690996</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -5713,13 +5713,13 @@
         <v>0.53</v>
       </c>
       <c r="B55">
-        <v>0.09771543869246123</v>
+        <v>0.09482384683854193</v>
       </c>
       <c r="C55">
-        <v>458.8165526896491</v>
+        <v>462.257172900152</v>
       </c>
       <c r="D55">
-        <v>799.4125526896491</v>
+        <v>802.853172900152</v>
       </c>
       <c r="E55">
         <v>286.796</v>
@@ -5746,45 +5746,45 @@
         <v>69.7</v>
       </c>
       <c r="M55">
-        <v>11.9250636</v>
+        <v>8.195919999999999</v>
       </c>
       <c r="N55">
-        <v>57.7749364</v>
+        <v>61.50408</v>
       </c>
       <c r="O55">
-        <v>12.710486008</v>
+        <v>13.5308976</v>
       </c>
       <c r="P55">
-        <v>45.064450392</v>
+        <v>47.9731824</v>
       </c>
       <c r="Q55">
-        <v>50.764450392</v>
+        <v>53.6731824</v>
       </c>
       <c r="R55">
         <v>1.127659574468085</v>
       </c>
       <c r="S55">
-        <v>0.1823095716860877</v>
+        <v>0.1841613762522169</v>
       </c>
       <c r="T55">
         <v>1.739959284610248</v>
       </c>
       <c r="U55">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V55">
         <v>0.22</v>
       </c>
       <c r="W55">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y55">
-        <v>5.844832559215869</v>
+        <v>8.50423137365909</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -5795,13 +5795,13 @@
         <v>0.54</v>
       </c>
       <c r="B56">
-        <v>0.09758952295200005</v>
+        <v>0.09468217549708305</v>
       </c>
       <c r="C56">
-        <v>452.3152558393051</v>
+        <v>455.8573161178331</v>
       </c>
       <c r="D56">
-        <v>800.6432558393051</v>
+        <v>804.1853161178332</v>
       </c>
       <c r="E56">
         <v>294.5280000000001</v>
@@ -5828,45 +5828,45 @@
         <v>69.7</v>
       </c>
       <c r="M56">
-        <v>12.1500648</v>
+        <v>8.35056</v>
       </c>
       <c r="N56">
-        <v>57.5499352</v>
+        <v>61.34944</v>
       </c>
       <c r="O56">
-        <v>12.660985744</v>
+        <v>13.4968768</v>
       </c>
       <c r="P56">
-        <v>44.888949456</v>
+        <v>47.8525632</v>
       </c>
       <c r="Q56">
-        <v>50.588949456</v>
+        <v>53.5525632</v>
       </c>
       <c r="R56">
         <v>1.173913043478261</v>
       </c>
       <c r="S56">
-        <v>0.1855056585913044</v>
+        <v>0.1875177728197458</v>
       </c>
       <c r="T56">
         <v>1.773357130925276</v>
       </c>
       <c r="U56">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V56">
         <v>0.22</v>
       </c>
       <c r="W56">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y56">
-        <v>5.736594919230389</v>
+        <v>8.346745607480218</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -5877,13 +5877,13 @@
         <v>0.55</v>
       </c>
       <c r="B57">
-        <v>0.09746360721153885</v>
+        <v>0.09454050415562415</v>
       </c>
       <c r="C57">
-        <v>445.8177541898755</v>
+        <v>449.4618874303157</v>
       </c>
       <c r="D57">
-        <v>801.8777541898755</v>
+        <v>805.5218874303157</v>
       </c>
       <c r="E57">
         <v>302.26</v>
@@ -5910,45 +5910,45 @@
         <v>69.7</v>
       </c>
       <c r="M57">
-        <v>12.375066</v>
+        <v>8.5052</v>
       </c>
       <c r="N57">
-        <v>57.324934</v>
+        <v>61.1948</v>
       </c>
       <c r="O57">
-        <v>12.61148548</v>
+        <v>13.462856</v>
       </c>
       <c r="P57">
-        <v>44.71344852</v>
+        <v>47.731944</v>
       </c>
       <c r="Q57">
-        <v>50.41344852</v>
+        <v>53.431944</v>
       </c>
       <c r="R57">
         <v>1.222222222222223</v>
       </c>
       <c r="S57">
-        <v>0.1888437938034197</v>
+        <v>0.1910233425680537</v>
       </c>
       <c r="T57">
         <v>1.808239325965416</v>
       </c>
       <c r="U57">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V57">
         <v>0.22</v>
       </c>
       <c r="W57">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y57">
-        <v>5.6322931934262</v>
+        <v>8.194986596435122</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -5959,13 +5959,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B58">
-        <v>0.09733769147107767</v>
+        <v>0.09439883281416524</v>
       </c>
       <c r="C58">
-        <v>439.3240653237389</v>
+        <v>443.07090895309</v>
       </c>
       <c r="D58">
-        <v>803.1160653237389</v>
+        <v>806.86290895309</v>
       </c>
       <c r="E58">
         <v>309.9920000000001</v>
@@ -5992,45 +5992,45 @@
         <v>69.7</v>
       </c>
       <c r="M58">
-        <v>12.6000672</v>
+        <v>8.659840000000001</v>
       </c>
       <c r="N58">
-        <v>57.0999328</v>
+        <v>61.04016</v>
       </c>
       <c r="O58">
-        <v>12.561985216</v>
+        <v>13.4288352</v>
       </c>
       <c r="P58">
-        <v>44.53794758399999</v>
+        <v>47.6113248</v>
       </c>
       <c r="Q58">
-        <v>50.237947584</v>
+        <v>53.3113248</v>
       </c>
       <c r="R58">
         <v>1.272727272727273</v>
       </c>
       <c r="S58">
-        <v>0.1923336624342674</v>
+        <v>0.1946882563958301</v>
       </c>
       <c r="T58">
         <v>1.844707075325563</v>
       </c>
       <c r="U58">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V58">
         <v>0.22</v>
       </c>
       <c r="W58">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y58">
-        <v>5.531716529257874</v>
+        <v>8.048647550070209</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -6041,13 +6041,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B59">
-        <v>0.09721177573061648</v>
+        <v>0.09474622147270634</v>
       </c>
       <c r="C59">
-        <v>432.8342069320503</v>
+        <v>432.0585412699232</v>
       </c>
       <c r="D59">
-        <v>804.3582069320503</v>
+        <v>803.5825412699232</v>
       </c>
       <c r="E59">
         <v>317.724</v>
@@ -6074,45 +6074,45 @@
         <v>69.7</v>
       </c>
       <c r="M59">
-        <v>12.8250684</v>
+        <v>9.299276400000002</v>
       </c>
       <c r="N59">
-        <v>56.8749316</v>
+        <v>60.4007236</v>
       </c>
       <c r="O59">
-        <v>12.512484952</v>
+        <v>13.288159192</v>
       </c>
       <c r="P59">
-        <v>44.362446648</v>
+        <v>47.112564408</v>
       </c>
       <c r="Q59">
-        <v>50.06244664800001</v>
+        <v>52.812564408</v>
       </c>
       <c r="R59">
         <v>1.325581395348838</v>
       </c>
       <c r="S59">
-        <v>0.1959858505363174</v>
+        <v>0.1985236313318752</v>
       </c>
       <c r="T59">
         <v>1.882870999074553</v>
       </c>
       <c r="U59">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V59">
         <v>0.22</v>
       </c>
       <c r="W59">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y59">
-        <v>5.434668870849842</v>
+        <v>7.49520683136163</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -6123,13 +6123,13 @@
         <v>0.58</v>
       </c>
       <c r="B60">
-        <v>0.09708585999015527</v>
+        <v>0.09461313013124743</v>
       </c>
       <c r="C60">
-        <v>426.348196815582</v>
+        <v>425.5801569586927</v>
       </c>
       <c r="D60">
-        <v>805.604196815582</v>
+        <v>804.8361569586926</v>
       </c>
       <c r="E60">
         <v>325.456</v>
@@ -6156,45 +6156,45 @@
         <v>69.7</v>
       </c>
       <c r="M60">
-        <v>13.0500696</v>
+        <v>9.462421600000001</v>
       </c>
       <c r="N60">
-        <v>56.6499304</v>
+        <v>60.2375784</v>
       </c>
       <c r="O60">
-        <v>12.462984688</v>
+        <v>13.252267248</v>
       </c>
       <c r="P60">
-        <v>44.186945712</v>
+        <v>46.985311152</v>
       </c>
       <c r="Q60">
-        <v>49.88694571200001</v>
+        <v>52.685311152</v>
       </c>
       <c r="R60">
         <v>1.380952380952381</v>
       </c>
       <c r="S60">
-        <v>0.1998119523575125</v>
+        <v>0.2025416431696367</v>
       </c>
       <c r="T60">
         <v>1.922852252525876</v>
       </c>
       <c r="U60">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V60">
         <v>0.22</v>
       </c>
       <c r="W60">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y60">
-        <v>5.340967683421397</v>
+        <v>7.365979127372638</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -6205,13 +6205,13 @@
         <v>0.59</v>
       </c>
       <c r="B61">
-        <v>0.09695994424969409</v>
+        <v>0.09448003878978854</v>
       </c>
       <c r="C61">
-        <v>419.8660528855737</v>
+        <v>419.1056901238114</v>
       </c>
       <c r="D61">
-        <v>806.8540528855737</v>
+        <v>806.0936901238114</v>
       </c>
       <c r="E61">
         <v>333.188</v>
@@ -6238,45 +6238,45 @@
         <v>69.7</v>
       </c>
       <c r="M61">
-        <v>13.2750708</v>
+        <v>9.6255668</v>
       </c>
       <c r="N61">
-        <v>56.4249292</v>
+        <v>60.0744332</v>
       </c>
       <c r="O61">
-        <v>12.413484424</v>
+        <v>13.216375304</v>
       </c>
       <c r="P61">
-        <v>44.011444776</v>
+        <v>46.85805789600001</v>
       </c>
       <c r="Q61">
-        <v>49.71144477600001</v>
+        <v>52.55805789600001</v>
       </c>
       <c r="R61">
         <v>1.439024390243902</v>
       </c>
       <c r="S61">
-        <v>0.2038246932919368</v>
+        <v>0.2067556555848501</v>
       </c>
       <c r="T61">
         <v>1.964783811023606</v>
       </c>
       <c r="U61">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V61">
         <v>0.22</v>
       </c>
       <c r="W61">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y61">
-        <v>5.250442807431204</v>
+        <v>7.241132023518865</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -6287,13 +6287,13 @@
         <v>0.6</v>
       </c>
       <c r="B62">
-        <v>0.09683402850923291</v>
+        <v>0.09434694744832965</v>
       </c>
       <c r="C62">
-        <v>413.3877931645926</v>
+        <v>412.6351591568452</v>
       </c>
       <c r="D62">
-        <v>808.1077931645925</v>
+        <v>807.3551591568452</v>
       </c>
       <c r="E62">
         <v>340.92</v>
@@ -6320,45 +6320,45 @@
         <v>69.7</v>
       </c>
       <c r="M62">
-        <v>13.500072</v>
+        <v>9.788712</v>
       </c>
       <c r="N62">
-        <v>56.199928</v>
+        <v>59.911288</v>
       </c>
       <c r="O62">
-        <v>12.36398416</v>
+        <v>13.18048336</v>
       </c>
       <c r="P62">
-        <v>43.83594384</v>
+        <v>46.73080464</v>
       </c>
       <c r="Q62">
-        <v>49.53594384</v>
+        <v>52.43080464000001</v>
       </c>
       <c r="R62">
         <v>1.5</v>
       </c>
       <c r="S62">
-        <v>0.2080380712730822</v>
+        <v>0.2111803686208241</v>
       </c>
       <c r="T62">
         <v>2.008811947446222</v>
       </c>
       <c r="U62">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V62">
         <v>0.22</v>
       </c>
       <c r="W62">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y62">
-        <v>5.16293542730735</v>
+        <v>7.12044648979355</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -6369,13 +6369,13 @@
         <v>0.61</v>
       </c>
       <c r="B63">
-        <v>0.0967081127687717</v>
+        <v>0.09421385610687073</v>
       </c>
       <c r="C63">
-        <v>406.9134357873986</v>
+        <v>406.1685825646661</v>
       </c>
       <c r="D63">
-        <v>809.3654357873986</v>
+        <v>808.6205825646661</v>
       </c>
       <c r="E63">
         <v>348.652</v>
@@ -6402,45 +6402,45 @@
         <v>69.7</v>
       </c>
       <c r="M63">
-        <v>13.7250732</v>
+        <v>9.951857200000001</v>
       </c>
       <c r="N63">
-        <v>55.9749268</v>
+        <v>59.7481428</v>
       </c>
       <c r="O63">
-        <v>12.314483896</v>
+        <v>13.144591416</v>
       </c>
       <c r="P63">
-        <v>43.660442904</v>
+        <v>46.603551384</v>
       </c>
       <c r="Q63">
-        <v>49.360442904</v>
+        <v>52.303551384</v>
       </c>
       <c r="R63">
         <v>1.564102564102564</v>
       </c>
       <c r="S63">
-        <v>0.2124675199199274</v>
+        <v>0.2158319900176173</v>
       </c>
       <c r="T63">
         <v>2.055097937018715</v>
       </c>
       <c r="U63">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V63">
         <v>0.22</v>
       </c>
       <c r="W63">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y63">
-        <v>5.078297141613787</v>
+        <v>7.003717858813328</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -6451,13 +6451,13 @@
         <v>0.62</v>
       </c>
       <c r="B64">
-        <v>0.09658219702831052</v>
+        <v>0.09408076476541183</v>
       </c>
       <c r="C64">
-        <v>400.4429990018175</v>
+        <v>399.7059789703554</v>
       </c>
       <c r="D64">
-        <v>810.6269990018175</v>
+        <v>809.8899789703554</v>
       </c>
       <c r="E64">
         <v>356.384</v>
@@ -6484,45 +6484,45 @@
         <v>69.7</v>
       </c>
       <c r="M64">
-        <v>13.9500744</v>
+        <v>10.1150024</v>
       </c>
       <c r="N64">
-        <v>55.7499256</v>
+        <v>59.5849976</v>
       </c>
       <c r="O64">
-        <v>12.264983632</v>
+        <v>13.108699472</v>
       </c>
       <c r="P64">
-        <v>43.484941968</v>
+        <v>46.476298128</v>
       </c>
       <c r="Q64">
-        <v>49.184941968</v>
+        <v>52.17629812800001</v>
       </c>
       <c r="R64">
         <v>1.631578947368421</v>
       </c>
       <c r="S64">
-        <v>0.2171300974429224</v>
+        <v>0.220728433593189</v>
       </c>
       <c r="T64">
         <v>2.10382003130555</v>
       </c>
       <c r="U64">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V64">
         <v>0.22</v>
       </c>
       <c r="W64">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y64">
-        <v>4.996389123200663</v>
+        <v>6.890754667542145</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -6533,13 +6533,13 @@
         <v>0.63</v>
       </c>
       <c r="B65">
-        <v>0.09645628128784933</v>
+        <v>0.09394767342395294</v>
       </c>
       <c r="C65">
-        <v>393.9765011696259</v>
+        <v>393.2473671141195</v>
       </c>
       <c r="D65">
-        <v>811.8925011696259</v>
+        <v>811.1633671141195</v>
       </c>
       <c r="E65">
         <v>364.116</v>
@@ -6566,45 +6566,45 @@
         <v>69.7</v>
       </c>
       <c r="M65">
-        <v>14.1750756</v>
+        <v>10.2781476</v>
       </c>
       <c r="N65">
-        <v>55.5249244</v>
+        <v>59.42185240000001</v>
       </c>
       <c r="O65">
-        <v>12.215483368</v>
+        <v>13.072807528</v>
       </c>
       <c r="P65">
-        <v>43.309441032</v>
+        <v>46.34904487200001</v>
       </c>
       <c r="Q65">
-        <v>49.00944103200001</v>
+        <v>52.04904487200001</v>
       </c>
       <c r="R65">
         <v>1.702702702702703</v>
       </c>
       <c r="S65">
-        <v>0.2220447061833766</v>
+        <v>0.2258895497944674</v>
       </c>
       <c r="T65">
         <v>2.155175752310593</v>
       </c>
       <c r="U65">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V65">
         <v>0.22</v>
       </c>
       <c r="W65">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y65">
-        <v>4.917081359340334</v>
+        <v>6.78137760932719</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -6615,13 +6615,13 @@
         <v>0.64</v>
       </c>
       <c r="B66">
-        <v>0.09633036554738815</v>
+        <v>0.09381458208249405</v>
       </c>
       <c r="C66">
-        <v>387.5139607674407</v>
+        <v>386.7927658542109</v>
       </c>
       <c r="D66">
-        <v>813.1619607674406</v>
+        <v>812.4407658542109</v>
       </c>
       <c r="E66">
         <v>371.848</v>
@@ -6648,45 +6648,45 @@
         <v>69.7</v>
       </c>
       <c r="M66">
-        <v>14.4000768</v>
+        <v>10.4412928</v>
       </c>
       <c r="N66">
-        <v>55.2999232</v>
+        <v>59.2587072</v>
       </c>
       <c r="O66">
-        <v>12.165983104</v>
+        <v>13.036915584</v>
       </c>
       <c r="P66">
-        <v>43.133940096</v>
+        <v>46.221791616</v>
       </c>
       <c r="Q66">
-        <v>48.83394009600001</v>
+        <v>51.92179161600001</v>
       </c>
       <c r="R66">
         <v>1.777777777777778</v>
       </c>
       <c r="S66">
-        <v>0.2272323487427448</v>
+        <v>0.2313373946735946</v>
       </c>
       <c r="T66">
         <v>2.209384568927027</v>
       </c>
       <c r="U66">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V66">
         <v>0.22</v>
       </c>
       <c r="W66">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y66">
-        <v>4.840251963100641</v>
+        <v>6.675418584181453</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -6697,13 +6697,13 @@
         <v>0.65</v>
       </c>
       <c r="B67">
-        <v>0.09620444980692697</v>
+        <v>0.09368149074103514</v>
       </c>
       <c r="C67">
-        <v>381.0553963876179</v>
+        <v>380.3421941678595</v>
       </c>
       <c r="D67">
-        <v>814.4353963876179</v>
+        <v>813.7221941678595</v>
       </c>
       <c r="E67">
         <v>379.58</v>
@@ -6730,45 +6730,45 @@
         <v>69.7</v>
       </c>
       <c r="M67">
-        <v>14.625078</v>
+        <v>10.604438</v>
       </c>
       <c r="N67">
-        <v>55.074922</v>
+        <v>59.095562</v>
       </c>
       <c r="O67">
-        <v>12.11648284</v>
+        <v>13.00102364</v>
       </c>
       <c r="P67">
-        <v>42.95843916</v>
+        <v>46.09453836</v>
       </c>
       <c r="Q67">
-        <v>48.65843916</v>
+        <v>51.79453836</v>
       </c>
       <c r="R67">
         <v>1.857142857142857</v>
       </c>
       <c r="S67">
-        <v>0.2327164280197913</v>
+        <v>0.2370965449743861</v>
       </c>
       <c r="T67">
         <v>2.266691032207258</v>
       </c>
       <c r="U67">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V67">
         <v>0.22</v>
       </c>
       <c r="W67">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y67">
-        <v>4.765786548283708</v>
+        <v>6.572719836732507</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -6779,13 +6779,13 @@
         <v>0.66</v>
       </c>
       <c r="B68">
-        <v>0.09607853406646577</v>
+        <v>0.09354839939957625</v>
       </c>
       <c r="C68">
-        <v>374.6008267391617</v>
+        <v>373.8956711522118</v>
       </c>
       <c r="D68">
-        <v>815.7128267391618</v>
+        <v>815.0076711522119</v>
       </c>
       <c r="E68">
         <v>387.3120000000001</v>
@@ -6812,45 +6812,45 @@
         <v>69.7</v>
       </c>
       <c r="M68">
-        <v>14.8500792</v>
+        <v>10.7675832</v>
       </c>
       <c r="N68">
-        <v>54.8499208</v>
+        <v>58.9324168</v>
       </c>
       <c r="O68">
-        <v>12.066982576</v>
+        <v>12.965131696</v>
       </c>
       <c r="P68">
-        <v>42.782938224</v>
+        <v>45.967285104</v>
       </c>
       <c r="Q68">
-        <v>48.482938224</v>
+        <v>51.667285104</v>
       </c>
       <c r="R68">
         <v>1.941176470588236</v>
       </c>
       <c r="S68">
-        <v>0.2385231001954876</v>
+        <v>0.2431944688222831</v>
       </c>
       <c r="T68">
         <v>2.327368463915737</v>
       </c>
       <c r="U68">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V68">
         <v>0.22</v>
       </c>
       <c r="W68">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y68">
-        <v>4.6935776611885</v>
+        <v>6.47313317253959</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -6861,13 +6861,13 @@
         <v>0.67</v>
       </c>
       <c r="B69">
-        <v>0.09595261832600457</v>
+        <v>0.09419920805811735</v>
       </c>
       <c r="C69">
-        <v>368.1502706486395</v>
+        <v>359.9160975729601</v>
       </c>
       <c r="D69">
-        <v>816.9942706486396</v>
+        <v>808.7600975729601</v>
       </c>
       <c r="E69">
         <v>395.0440000000001</v>
@@ -6894,37 +6894,37 @@
         <v>69.7</v>
       </c>
       <c r="M69">
-        <v>15.0750804</v>
+        <v>11.7077944</v>
       </c>
       <c r="N69">
-        <v>54.6249196</v>
+        <v>57.99220560000001</v>
       </c>
       <c r="O69">
-        <v>12.017482312</v>
+        <v>12.758285232</v>
       </c>
       <c r="P69">
-        <v>42.607437288</v>
+        <v>45.23392036800001</v>
       </c>
       <c r="Q69">
-        <v>48.307437288</v>
+        <v>50.93392036800001</v>
       </c>
       <c r="R69">
         <v>2.030303030303031</v>
       </c>
       <c r="S69">
-        <v>0.2446816918969836</v>
+        <v>0.2496619638124768</v>
       </c>
       <c r="T69">
         <v>2.39172331572776</v>
       </c>
       <c r="U69">
-        <v>0.0291</v>
+        <v>0.0226</v>
       </c>
       <c r="V69">
         <v>0.22</v>
       </c>
       <c r="W69">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="Y69">
-        <v>4.623524263260313</v>
+        <v>5.953298940746688</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -6943,13 +6943,13 @@
         <v>0.68</v>
       </c>
       <c r="B70">
-        <v>0.09582670258554339</v>
+        <v>0.09407781671665845</v>
       </c>
       <c r="C70">
-        <v>361.7037470611069</v>
+        <v>353.3421419407566</v>
       </c>
       <c r="D70">
-        <v>818.2797470611069</v>
+        <v>809.9181419407566</v>
       </c>
       <c r="E70">
         <v>402.7760000000001</v>
@@ -6976,37 +6976,37 @@
         <v>69.7</v>
       </c>
       <c r="M70">
-        <v>15.3000816</v>
+        <v>11.8825376</v>
       </c>
       <c r="N70">
-        <v>54.3999184</v>
+        <v>57.8174624</v>
       </c>
       <c r="O70">
-        <v>11.967982048</v>
+        <v>12.719841728</v>
       </c>
       <c r="P70">
-        <v>42.431936352</v>
+        <v>45.09762067200001</v>
       </c>
       <c r="Q70">
-        <v>48.131936352</v>
+        <v>50.79762067200001</v>
       </c>
       <c r="R70">
         <v>2.125</v>
       </c>
       <c r="S70">
-        <v>0.2512251955798231</v>
+        <v>0.2565336772395577</v>
       </c>
       <c r="T70">
         <v>2.460100345778035</v>
       </c>
       <c r="U70">
-        <v>0.0291</v>
+        <v>0.0226</v>
       </c>
       <c r="V70">
         <v>0.22</v>
       </c>
       <c r="W70">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         </is>
       </c>
       <c r="Y70">
-        <v>4.555531259388839</v>
+        <v>5.865750426912177</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -7025,13 +7025,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="B71">
-        <v>0.1034508668450822</v>
+        <v>0.09395642537519955</v>
       </c>
       <c r="C71">
-        <v>282.7950499398534</v>
+        <v>346.7715074163996</v>
       </c>
       <c r="D71">
-        <v>747.1030499398533</v>
+        <v>811.0795074163996</v>
       </c>
       <c r="E71">
         <v>410.508</v>
@@ -7058,45 +7058,45 @@
         <v>69.7</v>
       </c>
       <c r="M71">
-        <v>23.207598</v>
+        <v>12.0572808</v>
       </c>
       <c r="N71">
-        <v>46.492402</v>
+        <v>57.6427192</v>
       </c>
       <c r="O71">
-        <v>10.22832844</v>
+        <v>12.681398224</v>
       </c>
       <c r="P71">
-        <v>36.26407356</v>
+        <v>44.961320976</v>
       </c>
       <c r="Q71">
-        <v>41.96407356</v>
+        <v>50.66132097600001</v>
       </c>
       <c r="R71">
         <v>2.225806451612904</v>
       </c>
       <c r="S71">
-        <v>0.2581908607905878</v>
+        <v>0.2638487270167728</v>
       </c>
       <c r="T71">
         <v>2.532888797121875</v>
       </c>
       <c r="U71">
-        <v>0.0435</v>
+        <v>0.0226</v>
       </c>
       <c r="V71">
         <v>0.22</v>
       </c>
       <c r="W71">
-        <v>0.03393</v>
+        <v>0.017628</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>Ba2/BB</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y71">
-        <v>3.003326755315221</v>
+        <v>5.780739551159827</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -7107,13 +7107,13 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="B72">
-        <v>0.120745471104621</v>
+        <v>0.09383503403374063</v>
       </c>
       <c r="C72">
-        <v>151.9433816606637</v>
+        <v>340.2042083071074</v>
       </c>
       <c r="D72">
-        <v>623.9833816606638</v>
+        <v>812.2442083071074</v>
       </c>
       <c r="E72">
         <v>418.2400000000001</v>
@@ -7140,45 +7140,45 @@
         <v>69.7</v>
       </c>
       <c r="M72">
-        <v>40.70124800000001</v>
+        <v>12.232024</v>
       </c>
       <c r="N72">
-        <v>28.99875199999999</v>
+        <v>57.467976</v>
       </c>
       <c r="O72">
-        <v>6.379725439999998</v>
+        <v>12.64295472</v>
       </c>
       <c r="P72">
-        <v>22.61902655999999</v>
+        <v>44.82502128</v>
       </c>
       <c r="Q72">
-        <v>28.31902655999999</v>
+        <v>50.52502128</v>
       </c>
       <c r="R72">
         <v>2.333333333333334</v>
       </c>
       <c r="S72">
-        <v>0.26562090368207</v>
+        <v>0.2716514467791355</v>
       </c>
       <c r="T72">
         <v>2.610529811888639</v>
       </c>
       <c r="U72">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V72">
         <v>0.22</v>
       </c>
       <c r="W72">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y72">
-        <v>1.712478202142597</v>
+        <v>5.698157557571829</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -7189,13 +7189,13 @@
         <v>0.71</v>
       </c>
       <c r="B73">
-        <v>0.1209791353641598</v>
+        <v>0.09371364269228173</v>
       </c>
       <c r="C73">
-        <v>142.8251503103542</v>
+        <v>333.6402590023968</v>
       </c>
       <c r="D73">
-        <v>622.5971503103541</v>
+        <v>813.4122590023967</v>
       </c>
       <c r="E73">
         <v>425.972</v>
@@ -7222,45 +7222,45 @@
         <v>69.7</v>
       </c>
       <c r="M73">
-        <v>41.2826944</v>
+        <v>12.4067672</v>
       </c>
       <c r="N73">
-        <v>28.41730560000001</v>
+        <v>57.29323280000001</v>
       </c>
       <c r="O73">
-        <v>6.251807232000002</v>
+        <v>12.604511216</v>
       </c>
       <c r="P73">
-        <v>22.16549836800001</v>
+        <v>44.68872158400001</v>
       </c>
       <c r="Q73">
-        <v>27.86549836800001</v>
+        <v>50.38872158400001</v>
       </c>
       <c r="R73">
         <v>2.448275862068965</v>
       </c>
       <c r="S73">
-        <v>0.2735633633246889</v>
+        <v>0.279992285145799</v>
       </c>
       <c r="T73">
         <v>2.693525379397937</v>
       </c>
       <c r="U73">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V73">
         <v>0.22</v>
       </c>
       <c r="W73">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y73">
-        <v>1.688358790844815</v>
+        <v>5.61790181732434</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -7271,13 +7271,13 @@
         <v>0.72</v>
       </c>
       <c r="B74">
-        <v>0.1212127996236986</v>
+        <v>0.09359225135082283</v>
       </c>
       <c r="C74">
-        <v>133.7130645651924</v>
+        <v>327.0796739746752</v>
       </c>
       <c r="D74">
-        <v>621.2170645651925</v>
+        <v>814.5836739746752</v>
       </c>
       <c r="E74">
         <v>433.7040000000001</v>
@@ -7304,45 +7304,45 @@
         <v>69.7</v>
       </c>
       <c r="M74">
-        <v>41.86414080000001</v>
+        <v>12.5815104</v>
       </c>
       <c r="N74">
-        <v>27.83585919999999</v>
+        <v>57.1184896</v>
       </c>
       <c r="O74">
-        <v>6.123889023999999</v>
+        <v>12.566067712</v>
       </c>
       <c r="P74">
-        <v>21.71197017599999</v>
+        <v>44.552421888</v>
       </c>
       <c r="Q74">
-        <v>27.411970176</v>
+        <v>50.25242188800001</v>
       </c>
       <c r="R74">
         <v>2.571428571428571</v>
       </c>
       <c r="S74">
-        <v>0.2820731415132093</v>
+        <v>0.2889288976815101</v>
       </c>
       <c r="T74">
         <v>2.782449201729329</v>
       </c>
       <c r="U74">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V74">
         <v>0.22</v>
       </c>
       <c r="W74">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y74">
-        <v>1.664909363194192</v>
+        <v>5.539875403194834</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -7353,13 +7353,13 @@
         <v>0.73</v>
       </c>
       <c r="B75">
-        <v>0.1214464638832374</v>
+        <v>0.09347086000936393</v>
       </c>
       <c r="C75">
-        <v>124.6070836474315</v>
+        <v>320.5224677798388</v>
       </c>
       <c r="D75">
-        <v>619.8430836474315</v>
+        <v>815.7584677798388</v>
       </c>
       <c r="E75">
         <v>441.436</v>
@@ -7386,45 +7386,45 @@
         <v>69.7</v>
       </c>
       <c r="M75">
-        <v>42.44558720000001</v>
+        <v>12.7562536</v>
       </c>
       <c r="N75">
-        <v>27.2544128</v>
+        <v>56.9437464</v>
       </c>
       <c r="O75">
-        <v>5.995970816</v>
+        <v>12.527624208</v>
       </c>
       <c r="P75">
-        <v>21.258441984</v>
+        <v>44.416122192</v>
       </c>
       <c r="Q75">
-        <v>26.958441984</v>
+        <v>50.11612219200001</v>
       </c>
       <c r="R75">
         <v>2.703703703703703</v>
       </c>
       <c r="S75">
-        <v>0.2912132736416201</v>
+        <v>0.2985274815161627</v>
       </c>
       <c r="T75">
         <v>2.877959973863045</v>
       </c>
       <c r="U75">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V75">
         <v>0.22</v>
       </c>
       <c r="W75">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y75">
-        <v>1.642102385616189</v>
+        <v>5.46398669904148</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -7435,13 +7435,13 @@
         <v>0.74</v>
       </c>
       <c r="B76">
-        <v>0.1216801281427762</v>
+        <v>0.09334946866790501</v>
       </c>
       <c r="C76">
-        <v>115.5071671392892</v>
+        <v>313.9686550578757</v>
       </c>
       <c r="D76">
-        <v>618.4751671392892</v>
+        <v>816.9366550578757</v>
       </c>
       <c r="E76">
         <v>449.168</v>
@@ -7468,45 +7468,45 @@
         <v>69.7</v>
       </c>
       <c r="M76">
-        <v>43.0270336</v>
+        <v>12.9309968</v>
       </c>
       <c r="N76">
-        <v>26.6729664</v>
+        <v>56.7690032</v>
       </c>
       <c r="O76">
-        <v>5.868052608</v>
+        <v>12.489180704</v>
       </c>
       <c r="P76">
-        <v>20.804913792</v>
+        <v>44.279822496</v>
       </c>
       <c r="Q76">
-        <v>26.504913792</v>
+        <v>49.979822496</v>
       </c>
       <c r="R76">
         <v>2.846153846153846</v>
       </c>
       <c r="S76">
-        <v>0.3010564928568317</v>
+        <v>0.3088644179534809</v>
       </c>
       <c r="T76">
         <v>2.980817728468587</v>
       </c>
       <c r="U76">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V76">
         <v>0.22</v>
       </c>
       <c r="W76">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y76">
-        <v>1.619911812837592</v>
+        <v>5.390149040946326</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -7517,13 +7517,13 @@
         <v>0.75</v>
       </c>
       <c r="B77">
-        <v>0.121913792402315</v>
+        <v>0.09322807732644613</v>
       </c>
       <c r="C77">
-        <v>106.413274978986</v>
+        <v>307.4182505334716</v>
       </c>
       <c r="D77">
-        <v>617.1132749789861</v>
+        <v>818.1182505334716</v>
       </c>
       <c r="E77">
         <v>456.9000000000001</v>
@@ -7550,45 +7550,45 @@
         <v>69.7</v>
       </c>
       <c r="M77">
-        <v>43.60848000000001</v>
+        <v>13.10574</v>
       </c>
       <c r="N77">
-        <v>26.09152</v>
+        <v>56.59426000000001</v>
       </c>
       <c r="O77">
-        <v>5.740134399999999</v>
+        <v>12.4507372</v>
       </c>
       <c r="P77">
-        <v>20.3513856</v>
+        <v>44.14352280000001</v>
       </c>
       <c r="Q77">
-        <v>26.0513856</v>
+        <v>49.84352280000001</v>
       </c>
       <c r="R77">
         <v>3</v>
       </c>
       <c r="S77">
-        <v>0.3116871696092602</v>
+        <v>0.3200283093057845</v>
       </c>
       <c r="T77">
         <v>3.091904103442571</v>
       </c>
       <c r="U77">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V77">
         <v>0.22</v>
       </c>
       <c r="W77">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y77">
-        <v>1.598312988666424</v>
+        <v>5.318280387067041</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -7599,13 +7599,13 @@
         <v>0.76</v>
       </c>
       <c r="B78">
-        <v>0.1221474566618539</v>
+        <v>0.09310668598498723</v>
       </c>
       <c r="C78">
-        <v>97.3253674568341</v>
+        <v>300.8712690166277</v>
       </c>
       <c r="D78">
-        <v>615.7573674568341</v>
+        <v>819.3032690166277</v>
       </c>
       <c r="E78">
         <v>464.6320000000001</v>
@@ -7632,45 +7632,45 @@
         <v>69.7</v>
       </c>
       <c r="M78">
-        <v>44.1899264</v>
+        <v>13.2804832</v>
       </c>
       <c r="N78">
-        <v>25.5100736</v>
+        <v>56.4195168</v>
       </c>
       <c r="O78">
-        <v>5.612216192</v>
+        <v>12.412293696</v>
       </c>
       <c r="P78">
-        <v>19.897857408</v>
+        <v>44.007223104</v>
       </c>
       <c r="Q78">
-        <v>25.597857408</v>
+        <v>49.70722310400001</v>
       </c>
       <c r="R78">
         <v>3.166666666666667</v>
       </c>
       <c r="S78">
-        <v>0.3232037360910577</v>
+        <v>0.3321225249374468</v>
       </c>
       <c r="T78">
         <v>3.212247676331055</v>
       </c>
       <c r="U78">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V78">
         <v>0.22</v>
       </c>
       <c r="W78">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y78">
-        <v>1.577282554605024</v>
+        <v>5.248303013553</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -7681,13 +7681,13 @@
         <v>0.77</v>
       </c>
       <c r="B79">
-        <v>0.1223811209213927</v>
+        <v>0.09298529464352832</v>
       </c>
       <c r="C79">
-        <v>88.24340521137719</v>
+        <v>294.3277254032754</v>
       </c>
       <c r="D79">
-        <v>614.4074052113772</v>
+        <v>820.4917254032754</v>
       </c>
       <c r="E79">
         <v>472.364</v>
@@ -7714,45 +7714,45 @@
         <v>69.7</v>
       </c>
       <c r="M79">
-        <v>44.7713728</v>
+        <v>13.4552264</v>
       </c>
       <c r="N79">
-        <v>24.9286272</v>
+        <v>56.2447736</v>
       </c>
       <c r="O79">
-        <v>5.484297984</v>
+        <v>12.373850192</v>
       </c>
       <c r="P79">
-        <v>19.444329216</v>
+        <v>43.870923408</v>
       </c>
       <c r="Q79">
-        <v>25.144329216</v>
+        <v>49.57092340800001</v>
       </c>
       <c r="R79">
         <v>3.347826086956522</v>
       </c>
       <c r="S79">
-        <v>0.3357217431364899</v>
+        <v>0.3452684114936014</v>
       </c>
       <c r="T79">
         <v>3.34305590773158</v>
       </c>
       <c r="U79">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V79">
         <v>0.22</v>
       </c>
       <c r="W79">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y79">
-        <v>1.55679836558418</v>
+        <v>5.180143234156209</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -7763,13 +7763,13 @@
         <v>0.78</v>
       </c>
       <c r="B80">
-        <v>0.1226147851809315</v>
+        <v>0.09286390330206944</v>
       </c>
       <c r="C80">
-        <v>79.16734922558169</v>
+        <v>287.7876346759023</v>
       </c>
       <c r="D80">
-        <v>613.0633492255816</v>
+        <v>821.6836346759022</v>
       </c>
       <c r="E80">
         <v>480.096</v>
@@ -7796,45 +7796,45 @@
         <v>69.7</v>
       </c>
       <c r="M80">
-        <v>45.3528192</v>
+        <v>13.6299696</v>
       </c>
       <c r="N80">
-        <v>24.3471808</v>
+        <v>56.07003040000001</v>
       </c>
       <c r="O80">
-        <v>5.356379776000001</v>
+        <v>12.335406688</v>
       </c>
       <c r="P80">
-        <v>18.990801024</v>
+        <v>43.73462371200001</v>
       </c>
       <c r="Q80">
-        <v>24.69080102400001</v>
+        <v>49.43462371200001</v>
       </c>
       <c r="R80">
         <v>3.545454545454546</v>
       </c>
       <c r="S80">
-        <v>0.3493777508224158</v>
+        <v>0.3596093786457702</v>
       </c>
       <c r="T80">
         <v>3.485755796532154</v>
       </c>
       <c r="U80">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V80">
         <v>0.22</v>
       </c>
       <c r="W80">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y80">
-        <v>1.536839412179254</v>
+        <v>5.113731141410617</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -7845,13 +7845,13 @@
         <v>0.79</v>
       </c>
       <c r="B81">
-        <v>0.1228484494404703</v>
+        <v>0.09274251196061054</v>
       </c>
       <c r="C81">
-        <v>70.09716082307853</v>
+        <v>281.2510119041814</v>
       </c>
       <c r="D81">
-        <v>611.7251608230786</v>
+        <v>822.8790119041814</v>
       </c>
       <c r="E81">
         <v>487.8280000000001</v>
@@ -7878,45 +7878,45 @@
         <v>69.7</v>
       </c>
       <c r="M81">
-        <v>45.93426560000001</v>
+        <v>13.8047128</v>
       </c>
       <c r="N81">
-        <v>23.76573439999999</v>
+        <v>55.8952872</v>
       </c>
       <c r="O81">
-        <v>5.228461567999998</v>
+        <v>12.296963184</v>
       </c>
       <c r="P81">
-        <v>18.53727283199999</v>
+        <v>43.598324016</v>
       </c>
       <c r="Q81">
-        <v>24.237272832</v>
+        <v>49.298324016</v>
       </c>
       <c r="R81">
         <v>3.761904761904763</v>
       </c>
       <c r="S81">
-        <v>0.3643343306689062</v>
+        <v>0.3753161521933835</v>
       </c>
       <c r="T81">
         <v>3.642046150932782</v>
       </c>
       <c r="U81">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V81">
         <v>0.22</v>
       </c>
       <c r="W81">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y81">
-        <v>1.517385748733947</v>
+        <v>5.049000367468709</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -7927,13 +7927,13 @@
         <v>0.8</v>
       </c>
       <c r="B82">
-        <v>0.1491059817470384</v>
+        <v>0.09262112061915163</v>
       </c>
       <c r="C82">
-        <v>-58.12750546651512</v>
+        <v>274.7178722456067</v>
       </c>
       <c r="D82">
-        <v>491.2324945334849</v>
+        <v>824.0778722456067</v>
       </c>
       <c r="E82">
         <v>495.5600000000001</v>
@@ -7960,45 +7960,45 @@
         <v>69.7</v>
       </c>
       <c r="M82">
-        <v>71.44368</v>
+        <v>13.979456</v>
       </c>
       <c r="N82">
-        <v>-1.743679999999998</v>
+        <v>55.720544</v>
       </c>
       <c r="O82">
-        <v>-0.3836095999999995</v>
+        <v>12.25851968</v>
       </c>
       <c r="P82">
-        <v>-1.360070399999998</v>
+        <v>43.46202432</v>
       </c>
       <c r="Q82">
-        <v>4.339929600000005</v>
+        <v>49.16202432000001</v>
       </c>
       <c r="R82">
         <v>4.000000000000001</v>
       </c>
       <c r="S82">
-        <v>0.3826892465520573</v>
+        <v>0.3925936030957582</v>
       </c>
       <c r="T82">
-        <v>3.833847775222211</v>
+        <v>3.813965540773472</v>
       </c>
       <c r="U82">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V82">
-        <v>0.2146306013352056</v>
+        <v>0.22</v>
       </c>
       <c r="W82">
-        <v>0.09071016554578375</v>
+        <v>0.017628</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y82">
-        <v>0.9755936424327527</v>
+        <v>4.985887862875351</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -8009,13 +8009,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B83">
-        <v>0.1501029817470384</v>
+        <v>0.09249972927769273</v>
       </c>
       <c r="C83">
-        <v>-69.50617652831147</v>
+        <v>268.1882309461333</v>
       </c>
       <c r="D83">
-        <v>487.5858234716886</v>
+        <v>825.2802309461333</v>
       </c>
       <c r="E83">
         <v>503.292</v>
@@ -8042,45 +8042,45 @@
         <v>69.7</v>
       </c>
       <c r="M83">
-        <v>72.336726</v>
+        <v>14.1541992</v>
       </c>
       <c r="N83">
-        <v>-2.636725999999996</v>
+        <v>55.5458008</v>
       </c>
       <c r="O83">
-        <v>-0.5800797199999991</v>
+        <v>12.220076176</v>
       </c>
       <c r="P83">
-        <v>-2.056646279999997</v>
+        <v>43.325724624</v>
       </c>
       <c r="Q83">
-        <v>3.643353720000006</v>
+        <v>49.02572462400001</v>
       </c>
       <c r="R83">
         <v>4.263157894736843</v>
       </c>
       <c r="S83">
-        <v>0.4019992068969024</v>
+        <v>0.4116897330404882</v>
       </c>
       <c r="T83">
-        <v>4.035629237076011</v>
+        <v>4.00398170849213</v>
       </c>
       <c r="U83">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V83">
-        <v>0.2119808408248944</v>
+        <v>0.22</v>
       </c>
       <c r="W83">
-        <v>0.09101621288472468</v>
+        <v>0.017628</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y83">
-        <v>0.9635492764767928</v>
+        <v>4.924333691728743</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -8091,13 +8091,13 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B84">
-        <v>0.1510999817470384</v>
+        <v>0.09237833793623383</v>
       </c>
       <c r="C84">
-        <v>-80.83110433010643</v>
+        <v>261.6621033408237</v>
       </c>
       <c r="D84">
-        <v>483.9928956698937</v>
+        <v>826.4861033408238</v>
       </c>
       <c r="E84">
         <v>511.0240000000001</v>
@@ -8124,45 +8124,45 @@
         <v>69.7</v>
       </c>
       <c r="M84">
-        <v>73.22977200000001</v>
+        <v>14.3289424</v>
       </c>
       <c r="N84">
-        <v>-3.529772000000008</v>
+        <v>55.3710576</v>
       </c>
       <c r="O84">
-        <v>-0.7765498400000018</v>
+        <v>12.181632672</v>
       </c>
       <c r="P84">
-        <v>-2.753222160000007</v>
+        <v>43.189424928</v>
       </c>
       <c r="Q84">
-        <v>2.946777839999996</v>
+        <v>48.889424928</v>
       </c>
       <c r="R84">
         <v>4.555555555555557</v>
       </c>
       <c r="S84">
-        <v>0.4234547183911748</v>
+        <v>0.4329076552012992</v>
       </c>
       <c r="T84">
-        <v>4.259830861358012</v>
+        <v>4.215110783735084</v>
       </c>
       <c r="U84">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V84">
-        <v>0.2093957086197127</v>
+        <v>0.22</v>
       </c>
       <c r="W84">
-        <v>0.09131479565442317</v>
+        <v>0.017628</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y84">
-        <v>0.9517986755441488</v>
+        <v>4.86428084182961</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -8173,13 +8173,13 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B85">
-        <v>0.1520969817470385</v>
+        <v>0.09225694659477494</v>
       </c>
       <c r="C85">
-        <v>-92.10346825304691</v>
+        <v>255.1395048544998</v>
       </c>
       <c r="D85">
-        <v>480.4525317469531</v>
+        <v>827.6955048544999</v>
       </c>
       <c r="E85">
         <v>518.7560000000001</v>
@@ -8206,45 +8206,45 @@
         <v>69.7</v>
       </c>
       <c r="M85">
-        <v>74.12281800000001</v>
+        <v>14.5036856</v>
       </c>
       <c r="N85">
-        <v>-4.422818000000007</v>
+        <v>55.19631440000001</v>
       </c>
       <c r="O85">
-        <v>-0.9730199600000015</v>
+        <v>12.143189168</v>
       </c>
       <c r="P85">
-        <v>-3.449798040000005</v>
+        <v>43.05312523200001</v>
       </c>
       <c r="Q85">
-        <v>2.250201959999998</v>
+        <v>48.75312523200001</v>
       </c>
       <c r="R85">
         <v>4.882352941176473</v>
       </c>
       <c r="S85">
-        <v>0.4474344077083028</v>
+        <v>0.4566218034986763</v>
       </c>
       <c r="T85">
-        <v>4.510409147320249</v>
+        <v>4.451078573712503</v>
       </c>
       <c r="U85">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V85">
-        <v>0.2068728687568246</v>
+        <v>0.22</v>
       </c>
       <c r="W85">
-        <v>0.09160618365858675</v>
+        <v>0.017628</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y85">
-        <v>0.9403312216219302</v>
+        <v>4.805675048554555</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -8255,13 +8255,13 @@
         <v>0.84</v>
       </c>
       <c r="B86">
-        <v>0.1530939817470384</v>
+        <v>0.09213555525331604</v>
       </c>
       <c r="C86">
-        <v>-103.3244134206092</v>
+        <v>248.6204510024014</v>
       </c>
       <c r="D86">
-        <v>476.9635865793909</v>
+        <v>828.9084510024014</v>
       </c>
       <c r="E86">
         <v>526.4880000000001</v>
@@ -8288,45 +8288,45 @@
         <v>69.7</v>
       </c>
       <c r="M86">
-        <v>75.01586400000001</v>
+        <v>14.6784288</v>
       </c>
       <c r="N86">
-        <v>-5.315864000000005</v>
+        <v>55.0215712</v>
       </c>
       <c r="O86">
-        <v>-1.169490080000001</v>
+        <v>12.104745664</v>
       </c>
       <c r="P86">
-        <v>-4.146373920000004</v>
+        <v>42.916825536</v>
       </c>
       <c r="Q86">
-        <v>1.553626079999999</v>
+        <v>48.61682553600001</v>
       </c>
       <c r="R86">
         <v>5.249999999999999</v>
       </c>
       <c r="S86">
-        <v>0.4744115581900714</v>
+        <v>0.4833002203332252</v>
       </c>
       <c r="T86">
-        <v>4.792309719027762</v>
+        <v>4.716542337437096</v>
       </c>
       <c r="U86">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V86">
-        <v>0.2044100965097196</v>
+        <v>0.22</v>
       </c>
       <c r="W86">
-        <v>0.09189063385312739</v>
+        <v>0.017628</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y86">
-        <v>0.9291368023169072</v>
+        <v>4.748464631309858</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -8337,13 +8337,13 @@
         <v>0.85</v>
       </c>
       <c r="B87">
-        <v>0.1540909817470384</v>
+        <v>0.09201416391185716</v>
       </c>
       <c r="C87">
-        <v>-114.4950519334913</v>
+        <v>242.104957390848</v>
       </c>
       <c r="D87">
-        <v>473.5249480665088</v>
+        <v>830.124957390848</v>
       </c>
       <c r="E87">
         <v>534.22</v>
@@ -8370,45 +8370,45 @@
         <v>69.7</v>
       </c>
       <c r="M87">
-        <v>75.90890999999999</v>
+        <v>14.853172</v>
       </c>
       <c r="N87">
-        <v>-6.208909999999989</v>
+        <v>54.846828</v>
       </c>
       <c r="O87">
-        <v>-1.365960199999998</v>
+        <v>12.06630216</v>
       </c>
       <c r="P87">
-        <v>-4.842949799999992</v>
+        <v>42.78052584</v>
       </c>
       <c r="Q87">
-        <v>0.8570502000000113</v>
+        <v>48.48052584000001</v>
       </c>
       <c r="R87">
         <v>5.666666666666666</v>
       </c>
       <c r="S87">
-        <v>0.5049856620694096</v>
+        <v>0.5135357594123809</v>
       </c>
       <c r="T87">
-        <v>5.111797033629614</v>
+        <v>5.017401269658305</v>
       </c>
       <c r="U87">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V87">
-        <v>0.2020052718448994</v>
+        <v>0.22</v>
       </c>
       <c r="W87">
-        <v>0.09216839110191412</v>
+        <v>0.017628</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y87">
-        <v>0.9182057811131791</v>
+        <v>4.692600341529742</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -8419,13 +8419,13 @@
         <v>0.86</v>
       </c>
       <c r="B88">
-        <v>0.1550879817470384</v>
+        <v>0.09189277257039821</v>
       </c>
       <c r="C88">
-        <v>-125.6164640514705</v>
+        <v>235.5930397179104</v>
       </c>
       <c r="D88">
-        <v>470.1355359485294</v>
+        <v>831.3450397179104</v>
       </c>
       <c r="E88">
         <v>541.952</v>
@@ -8452,45 +8452,45 @@
         <v>69.7</v>
       </c>
       <c r="M88">
-        <v>76.80195599999999</v>
+        <v>15.0279152</v>
       </c>
       <c r="N88">
-        <v>-7.101955999999987</v>
+        <v>54.67208480000001</v>
       </c>
       <c r="O88">
-        <v>-1.562430319999997</v>
+        <v>12.027858656</v>
       </c>
       <c r="P88">
-        <v>-5.53952567999999</v>
+        <v>42.64422614400001</v>
       </c>
       <c r="Q88">
-        <v>0.1604743200000129</v>
+        <v>48.34422614400001</v>
       </c>
       <c r="R88">
         <v>6.142857142857142</v>
       </c>
       <c r="S88">
-        <v>0.5399274950743673</v>
+        <v>0.5480906612171301</v>
       </c>
       <c r="T88">
-        <v>5.476925393174585</v>
+        <v>5.361240049339685</v>
       </c>
       <c r="U88">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V88">
-        <v>0.199656373335075</v>
+        <v>0.22</v>
       </c>
       <c r="W88">
-        <v>0.09243968887979882</v>
+        <v>0.017628</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y88">
-        <v>0.9075289697048863</v>
+        <v>4.638035221279397</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -8501,13 +8501,13 @@
         <v>0.87</v>
       </c>
       <c r="B89">
-        <v>0.1560849817470384</v>
+        <v>0.09177138122893932</v>
       </c>
       <c r="C89">
-        <v>-136.6896993248652</v>
+        <v>229.0847137740826</v>
       </c>
       <c r="D89">
-        <v>466.7943006751349</v>
+        <v>832.5687137740827</v>
       </c>
       <c r="E89">
         <v>549.6840000000001</v>
@@ -8534,45 +8534,45 @@
         <v>69.7</v>
       </c>
       <c r="M89">
-        <v>77.695002</v>
+        <v>15.2026584</v>
       </c>
       <c r="N89">
-        <v>-7.995001999999999</v>
+        <v>54.4973416</v>
       </c>
       <c r="O89">
-        <v>-1.75890044</v>
+        <v>11.989415152</v>
       </c>
       <c r="P89">
-        <v>-6.23610156</v>
+        <v>42.507926448</v>
       </c>
       <c r="Q89">
-        <v>-0.536101559999997</v>
+        <v>48.207926448</v>
       </c>
       <c r="R89">
         <v>6.692307692307692</v>
       </c>
       <c r="S89">
-        <v>0.5802449946954726</v>
+        <v>0.5879617017610718</v>
       </c>
       <c r="T89">
-        <v>5.898227346495707</v>
+        <v>5.757977102818201</v>
       </c>
       <c r="U89">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V89">
-        <v>0.1973614724921431</v>
+        <v>0.22</v>
       </c>
       <c r="W89">
-        <v>0.09270474992715746</v>
+        <v>0.017628</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y89">
-        <v>0.897097602237014</v>
+        <v>4.584724471609517</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -8583,13 +8583,13 @@
         <v>0.88</v>
       </c>
       <c r="B90">
-        <v>0.1570819817470384</v>
+        <v>0.09164998988748044</v>
       </c>
       <c r="C90">
-        <v>-147.7157776780863</v>
+        <v>222.5799954429673</v>
       </c>
       <c r="D90">
-        <v>463.5002223219138</v>
+        <v>833.7959954429673</v>
       </c>
       <c r="E90">
         <v>557.4160000000001</v>
@@ -8616,45 +8616,45 @@
         <v>69.7</v>
       </c>
       <c r="M90">
-        <v>78.588048</v>
+        <v>15.3774016</v>
       </c>
       <c r="N90">
-        <v>-8.888047999999998</v>
+        <v>54.3225984</v>
       </c>
       <c r="O90">
-        <v>-1.95537056</v>
+        <v>11.950971648</v>
       </c>
       <c r="P90">
-        <v>-6.932677439999998</v>
+        <v>42.371626752</v>
       </c>
       <c r="Q90">
-        <v>-1.232677439999995</v>
+        <v>48.07162675200001</v>
       </c>
       <c r="R90">
         <v>7.333333333333334</v>
       </c>
       <c r="S90">
-        <v>0.6272820775867621</v>
+        <v>0.6344779157290037</v>
       </c>
       <c r="T90">
-        <v>6.389746292037017</v>
+        <v>6.220836998543138</v>
       </c>
       <c r="U90">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V90">
-        <v>0.1951187284865505</v>
+        <v>0.22</v>
       </c>
       <c r="W90">
-        <v>0.0929637868598034</v>
+        <v>0.017628</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y90">
-        <v>0.8869033113025024</v>
+        <v>4.532625329886683</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -8665,13 +8665,13 @@
         <v>0.89</v>
       </c>
       <c r="B91">
-        <v>0.1580789817470385</v>
+        <v>0.1543068925750311</v>
       </c>
       <c r="C91">
-        <v>-158.6956904476375</v>
+        <v>-145.4319444964893</v>
       </c>
       <c r="D91">
-        <v>460.2523095523625</v>
+        <v>473.5160555035106</v>
       </c>
       <c r="E91">
         <v>565.148</v>
@@ -8698,37 +8698,37 @@
         <v>69.7</v>
       </c>
       <c r="M91">
-        <v>79.481094</v>
+        <v>75.008132</v>
       </c>
       <c r="N91">
-        <v>-9.781093999999996</v>
+        <v>-5.308132000000001</v>
       </c>
       <c r="O91">
-        <v>-2.151840679999999</v>
+        <v>-1.16778904</v>
       </c>
       <c r="P91">
-        <v>-7.629253319999997</v>
+        <v>-4.14034296</v>
       </c>
       <c r="Q91">
-        <v>-1.929253319999994</v>
+        <v>1.559657040000003</v>
       </c>
       <c r="R91">
         <v>8.090909090909092</v>
       </c>
       <c r="S91">
-        <v>0.6828713573673769</v>
+        <v>0.7011705467127645</v>
       </c>
       <c r="T91">
-        <v>6.970632318585838</v>
+        <v>6.884462465655454</v>
       </c>
       <c r="U91">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V91">
-        <v>0.1929263832226567</v>
+        <v>0.2044311675432738</v>
       </c>
       <c r="W91">
-        <v>0.09321700273778315</v>
+        <v>0.08671700273778316</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         </is>
       </c>
       <c r="Y91">
-        <v>0.8769381055575305</v>
+        <v>0.9292325797421538</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -8747,13 +8747,13 @@
         <v>0.9</v>
       </c>
       <c r="B92">
-        <v>0.1590759817470384</v>
+        <v>0.1553038925750311</v>
       </c>
       <c r="C92">
-        <v>-169.6304013767719</v>
+        <v>-156.3973891602636</v>
       </c>
       <c r="D92">
-        <v>457.0495986232282</v>
+        <v>470.2826108397364</v>
       </c>
       <c r="E92">
         <v>572.8800000000001</v>
@@ -8780,37 +8780,37 @@
         <v>69.7</v>
       </c>
       <c r="M92">
-        <v>80.37414000000001</v>
+        <v>75.85092000000002</v>
       </c>
       <c r="N92">
-        <v>-10.67414000000001</v>
+        <v>-6.150920000000013</v>
       </c>
       <c r="O92">
-        <v>-2.348310800000002</v>
+        <v>-1.353202400000003</v>
       </c>
       <c r="P92">
-        <v>-8.325829200000006</v>
+        <v>-4.797717600000011</v>
       </c>
       <c r="Q92">
-        <v>-2.625829200000004</v>
+        <v>0.9022823999999918</v>
       </c>
       <c r="R92">
         <v>9.000000000000002</v>
       </c>
       <c r="S92">
-        <v>0.7495784931041146</v>
+        <v>0.7703576013840411</v>
       </c>
       <c r="T92">
-        <v>7.667695550444423</v>
+        <v>7.572908712221</v>
       </c>
       <c r="U92">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V92">
-        <v>0.1907827567424049</v>
+        <v>0.2021597101261263</v>
       </c>
       <c r="W92">
-        <v>0.09346459159625221</v>
+        <v>0.08696459159625224</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         </is>
       </c>
       <c r="Y92">
-        <v>0.8671943488291134</v>
+        <v>0.9189077733005742</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -8829,13 +8829,13 @@
         <v>0.91</v>
       </c>
       <c r="B93">
-        <v>0.1600729817470384</v>
+        <v>0.1563008925750311</v>
       </c>
       <c r="C93">
-        <v>-180.5208475689101</v>
+        <v>-167.3189736232825</v>
       </c>
       <c r="D93">
-        <v>453.89115243109</v>
+        <v>467.0930263767175</v>
       </c>
       <c r="E93">
         <v>580.6120000000001</v>
@@ -8862,37 +8862,37 @@
         <v>69.7</v>
       </c>
       <c r="M93">
-        <v>81.26718600000001</v>
+        <v>76.69370800000002</v>
       </c>
       <c r="N93">
-        <v>-11.56718600000001</v>
+        <v>-6.993708000000012</v>
       </c>
       <c r="O93">
-        <v>-2.544780920000001</v>
+        <v>-1.538615760000003</v>
       </c>
       <c r="P93">
-        <v>-9.022405080000006</v>
+        <v>-5.45509224000001</v>
       </c>
       <c r="Q93">
-        <v>-3.322405080000003</v>
+        <v>0.2449077599999931</v>
       </c>
       <c r="R93">
         <v>10.11111111111111</v>
       </c>
       <c r="S93">
-        <v>0.8311094367823496</v>
+        <v>0.854919557093379</v>
       </c>
       <c r="T93">
-        <v>8.519661722716025</v>
+        <v>8.41434301357889</v>
       </c>
       <c r="U93">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V93">
-        <v>0.1886862429320489</v>
+        <v>0.1999381748500151</v>
       </c>
       <c r="W93">
-        <v>0.09370673894134836</v>
+        <v>0.08720673894134835</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         </is>
       </c>
       <c r="Y93">
-        <v>0.857664740600222</v>
+        <v>0.9088098856818866</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -8911,13 +8911,13 @@
         <v>0.92</v>
       </c>
       <c r="B94">
-        <v>0.1610699817470385</v>
+        <v>0.1572978925750311</v>
       </c>
       <c r="C94">
-        <v>-191.3679404017969</v>
+        <v>-178.1975842891167</v>
       </c>
       <c r="D94">
-        <v>450.7760595982031</v>
+        <v>463.9464157108833</v>
       </c>
       <c r="E94">
         <v>588.3440000000001</v>
@@ -8944,37 +8944,37 @@
         <v>69.7</v>
       </c>
       <c r="M94">
-        <v>82.16023199999999</v>
+        <v>77.536496</v>
       </c>
       <c r="N94">
-        <v>-12.46023199999999</v>
+        <v>-7.836495999999997</v>
       </c>
       <c r="O94">
-        <v>-2.741251039999998</v>
+        <v>-1.724029119999999</v>
       </c>
       <c r="P94">
-        <v>-9.718980959999993</v>
+        <v>-6.112466879999998</v>
       </c>
       <c r="Q94">
-        <v>-4.01898095999999</v>
+        <v>-0.4124668799999949</v>
       </c>
       <c r="R94">
         <v>11.50000000000001</v>
       </c>
       <c r="S94">
-        <v>0.9330231163801437</v>
+        <v>0.9606220017300517</v>
       </c>
       <c r="T94">
-        <v>9.584619438055531</v>
+        <v>9.466135890276254</v>
       </c>
       <c r="U94">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V94">
-        <v>0.1866353055088744</v>
+        <v>0.1977649338190367</v>
       </c>
       <c r="W94">
-        <v>0.093943622213725</v>
+        <v>0.08744362221372499</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         </is>
       </c>
       <c r="Y94">
-        <v>0.8483422977676111</v>
+        <v>0.8989315173592576</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -8993,13 +8993,13 @@
         <v>0.93</v>
       </c>
       <c r="B95">
-        <v>0.1620669817470385</v>
+        <v>0.1582948925750311</v>
       </c>
       <c r="C95">
-        <v>-202.1725664042715</v>
+        <v>-189.0340838358433</v>
       </c>
       <c r="D95">
-        <v>447.7034335957287</v>
+        <v>460.8419161641568</v>
       </c>
       <c r="E95">
         <v>596.0760000000001</v>
@@ -9026,37 +9026,37 @@
         <v>69.7</v>
       </c>
       <c r="M95">
-        <v>83.05327800000001</v>
+        <v>78.37928400000001</v>
       </c>
       <c r="N95">
-        <v>-13.353278</v>
+        <v>-8.67928400000001</v>
       </c>
       <c r="O95">
-        <v>-2.937721160000001</v>
+        <v>-1.909442480000002</v>
       </c>
       <c r="P95">
-        <v>-10.41555684</v>
+        <v>-6.769841520000008</v>
       </c>
       <c r="Q95">
-        <v>-4.71555684</v>
+        <v>-1.069841520000005</v>
       </c>
       <c r="R95">
         <v>13.2857142857143</v>
       </c>
       <c r="S95">
-        <v>1.064054990148736</v>
+        <v>1.096525144834345</v>
       </c>
       <c r="T95">
-        <v>10.95385078634918</v>
+        <v>10.81844101745858</v>
       </c>
       <c r="U95">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V95">
-        <v>0.1846284742668435</v>
+        <v>0.1956384291543158</v>
       </c>
       <c r="W95">
-        <v>0.09417541122217957</v>
+        <v>0.08767541122217958</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         </is>
       </c>
       <c r="Y95">
-        <v>0.8392203375765613</v>
+        <v>0.8892655870650719</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -9075,13 +9075,13 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="B96">
-        <v>0.1630639817470384</v>
+        <v>0.1592918925750311</v>
       </c>
       <c r="C96">
-        <v>-212.9355880974214</v>
+        <v>-199.8293120045647</v>
       </c>
       <c r="D96">
-        <v>444.6724119025787</v>
+        <v>457.7786879954353</v>
       </c>
       <c r="E96">
         <v>603.8080000000001</v>
@@ -9108,37 +9108,37 @@
         <v>69.7</v>
       </c>
       <c r="M96">
-        <v>83.946324</v>
+        <v>79.22207200000001</v>
       </c>
       <c r="N96">
-        <v>-14.246324</v>
+        <v>-9.522072000000009</v>
       </c>
       <c r="O96">
-        <v>-3.13419128</v>
+        <v>-2.094855840000002</v>
       </c>
       <c r="P96">
-        <v>-11.11213272</v>
+        <v>-7.427216160000007</v>
       </c>
       <c r="Q96">
-        <v>-5.412132719999999</v>
+        <v>-1.727216160000004</v>
       </c>
       <c r="R96">
         <v>15.66666666666668</v>
       </c>
       <c r="S96">
-        <v>1.238764155173525</v>
+        <v>1.27772933564007</v>
       </c>
       <c r="T96">
-        <v>12.77949258407404</v>
+        <v>12.62151452036835</v>
       </c>
       <c r="U96">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V96">
-        <v>0.1826643415618771</v>
+        <v>0.1935571692696954</v>
       </c>
       <c r="W96">
-        <v>0.09440226854960318</v>
+        <v>0.0879022685496032</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="Y96">
-        <v>0.8302924616448959</v>
+        <v>0.8798053148622519</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -9157,13 +9157,13 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="B97">
-        <v>0.1640609817470385</v>
+        <v>0.1602888925750311</v>
       </c>
       <c r="C97">
-        <v>-223.6578448018005</v>
+        <v>-210.584086356689</v>
       </c>
       <c r="D97">
-        <v>441.6821551981996</v>
+        <v>454.7559136433111</v>
       </c>
       <c r="E97">
         <v>611.5400000000001</v>
@@ -9190,37 +9190,37 @@
         <v>69.7</v>
       </c>
       <c r="M97">
-        <v>84.83937</v>
+        <v>80.06486000000001</v>
       </c>
       <c r="N97">
-        <v>-15.13937</v>
+        <v>-10.36486000000001</v>
       </c>
       <c r="O97">
-        <v>-3.3306614</v>
+        <v>-2.280269200000002</v>
       </c>
       <c r="P97">
-        <v>-11.8087086</v>
+        <v>-8.084590800000006</v>
       </c>
       <c r="Q97">
-        <v>-6.108708599999996</v>
+        <v>-2.384590800000003</v>
       </c>
       <c r="R97">
         <v>19.00000000000003</v>
       </c>
       <c r="S97">
-        <v>1.483356986208231</v>
+        <v>1.531415202768085</v>
       </c>
       <c r="T97">
-        <v>15.33539110088886</v>
+        <v>15.14581742444202</v>
       </c>
       <c r="U97">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V97">
-        <v>0.1807415590191205</v>
+        <v>0.191519725382646</v>
       </c>
       <c r="W97">
-        <v>0.09462434993329158</v>
+        <v>0.08812434993329159</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         </is>
       </c>
       <c r="Y97">
-        <v>0.8215525409960023</v>
+        <v>0.8705442062847546</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0.96</v>
       </c>
       <c r="B98">
-        <v>0.1650579817470385</v>
+        <v>0.1612858925750311</v>
       </c>
       <c r="C98">
-        <v>-234.3401534122901</v>
+        <v>-221.2992030014035</v>
       </c>
       <c r="D98">
-        <v>438.7318465877099</v>
+        <v>451.7727969985965</v>
       </c>
       <c r="E98">
         <v>619.272</v>
@@ -9272,37 +9272,37 @@
         <v>69.7</v>
       </c>
       <c r="M98">
-        <v>85.732416</v>
+        <v>80.90764800000001</v>
       </c>
       <c r="N98">
-        <v>-16.032416</v>
+        <v>-11.20764800000001</v>
       </c>
       <c r="O98">
-        <v>-3.52713152</v>
+        <v>-2.465682560000001</v>
       </c>
       <c r="P98">
-        <v>-12.50528448</v>
+        <v>-8.741965440000005</v>
       </c>
       <c r="Q98">
-        <v>-6.805284479999996</v>
+        <v>-3.041965440000002</v>
       </c>
       <c r="R98">
         <v>23.99999999999998</v>
       </c>
       <c r="S98">
-        <v>1.850246232760284</v>
+        <v>1.911944003460101</v>
       </c>
       <c r="T98">
-        <v>19.16923887611103</v>
+        <v>18.93227178055248</v>
       </c>
       <c r="U98">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V98">
-        <v>0.1788588344460046</v>
+        <v>0.1895247282432434</v>
       </c>
       <c r="W98">
-        <v>0.09484180462148645</v>
+        <v>0.08834180462148647</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         </is>
       </c>
       <c r="Y98">
-        <v>0.8129947020272938</v>
+        <v>0.8614760374692884</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0.97</v>
       </c>
       <c r="B99">
-        <v>0.1660549817470384</v>
+        <v>0.1622828925750311</v>
       </c>
       <c r="C99">
-        <v>-244.9833091421172</v>
+        <v>-231.9754372947031</v>
       </c>
       <c r="D99">
-        <v>435.8206908578829</v>
+        <v>448.8285627052969</v>
       </c>
       <c r="E99">
         <v>627.004</v>
@@ -9354,37 +9354,37 @@
         <v>69.7</v>
       </c>
       <c r="M99">
-        <v>86.625462</v>
+        <v>81.75043600000001</v>
       </c>
       <c r="N99">
-        <v>-16.925462</v>
+        <v>-12.050436</v>
       </c>
       <c r="O99">
-        <v>-3.723601639999999</v>
+        <v>-2.651095920000001</v>
       </c>
       <c r="P99">
-        <v>-13.20186036</v>
+        <v>-9.399340080000004</v>
       </c>
       <c r="Q99">
-        <v>-7.501860359999995</v>
+        <v>-3.699340080000001</v>
       </c>
       <c r="R99">
         <v>32.33333333333331</v>
       </c>
       <c r="S99">
-        <v>2.461728310347046</v>
+        <v>2.546158671280135</v>
       </c>
       <c r="T99">
-        <v>25.55898516814805</v>
+        <v>25.24302904073664</v>
       </c>
       <c r="U99">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V99">
-        <v>0.177014928936252</v>
+        <v>0.187570865065478</v>
       </c>
       <c r="W99">
-        <v>0.09505477570786289</v>
+        <v>0.0885547757078629</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         </is>
       </c>
       <c r="Y99">
-        <v>0.8046133133466001</v>
+        <v>0.8525948412067184</v>
       </c>
       <c r="Z99">
         <v>0</v>
@@ -9403,13 +9403,13 @@
         <v>0.98</v>
       </c>
       <c r="B100">
-        <v>0.2008630673444929</v>
+        <v>0.1632798925750311</v>
       </c>
       <c r="C100">
-        <v>-334.6878179208892</v>
+        <v>-242.6135445112615</v>
       </c>
       <c r="D100">
-        <v>353.8481820791108</v>
+        <v>445.9224554887385</v>
       </c>
       <c r="E100">
         <v>634.736</v>
@@ -9436,45 +9436,45 @@
         <v>69.7</v>
       </c>
       <c r="M100">
-        <v>111.1598712</v>
+        <v>82.59322399999999</v>
       </c>
       <c r="N100">
-        <v>-41.45987119999999</v>
+        <v>-12.89322399999999</v>
       </c>
       <c r="O100">
-        <v>-9.121171663999998</v>
+        <v>-2.836509279999998</v>
       </c>
       <c r="P100">
-        <v>-32.33869953599999</v>
+        <v>-10.05671471999999</v>
       </c>
       <c r="Q100">
-        <v>-26.63869953599999</v>
+        <v>-4.356714719999989</v>
       </c>
       <c r="R100">
         <v>48.99999999999996</v>
       </c>
       <c r="S100">
-        <v>3.846446745393294</v>
+        <v>3.814588006920201</v>
       </c>
       <c r="T100">
-        <v>40.0287461148156</v>
+        <v>37.86454356110496</v>
       </c>
       <c r="U100">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V100">
-        <v>0.1379454639022648</v>
+        <v>0.1856568766464426</v>
       </c>
       <c r="W100">
-        <v>0.1264634004455377</v>
+        <v>0.08876340044553775</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y100">
-        <v>0.6270248359193853</v>
+        <v>0.8438948938474664</v>
       </c>
       <c r="Z100">
         <v>0</v>
@@ -9485,13 +9485,13 @@
         <v>0.99</v>
       </c>
       <c r="B101">
-        <v>0.2021720673444929</v>
+        <v>0.1642768925750311</v>
       </c>
       <c r="C101">
-        <v>-344.9051005973184</v>
+        <v>-253.2142604903681</v>
       </c>
       <c r="D101">
-        <v>351.3628994026817</v>
+        <v>443.053739509632</v>
       </c>
       <c r="E101">
         <v>642.4680000000001</v>
@@ -9518,45 +9518,45 @@
         <v>69.7</v>
       </c>
       <c r="M101">
-        <v>112.2941556</v>
+        <v>83.43601200000001</v>
       </c>
       <c r="N101">
-        <v>-42.59415560000001</v>
+        <v>-13.736012</v>
       </c>
       <c r="O101">
-        <v>-9.370714232000001</v>
+        <v>-3.021922640000001</v>
       </c>
       <c r="P101">
-        <v>-33.22344136800001</v>
+        <v>-10.71408936</v>
       </c>
       <c r="Q101">
-        <v>-27.52344136800001</v>
+        <v>-5.01408936</v>
       </c>
       <c r="R101">
         <v>98.99999999999991</v>
       </c>
       <c r="S101">
-        <v>7.677093490786588</v>
+        <v>7.619876013840402</v>
       </c>
       <c r="T101">
-        <v>80.05749222963119</v>
+        <v>75.72908712220992</v>
       </c>
       <c r="U101">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V101">
-        <v>0.1365520753779994</v>
+        <v>0.1837815546601149</v>
       </c>
       <c r="W101">
-        <v>0.1266678105420475</v>
+        <v>0.08896781054204747</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y101">
-        <v>0.6206912517181793</v>
+        <v>0.8353707030005221</v>
       </c>
       <c r="Z101">
         <v>0</v>
